--- a/data/death_rates/ILT2015-2017_TBL1.xlsx
+++ b/data/death_rates/ILT2015-2017_TBL1.xlsx
@@ -464,7 +464,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
+      <selection pane="topLeft" activeCell="A67" activeCellId="0" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -638,3016 +638,2782 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
+      <c r="A7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>99614.3814385983</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>8.28222691394331</v>
+      </c>
+      <c r="D7" s="10" t="n">
+        <v>0.999916857116469</v>
+      </c>
+      <c r="E7" s="15" t="n">
+        <v>8.31428835308287E-005</v>
+      </c>
+      <c r="F7" s="12" t="n">
+        <v>99610.2403251413</v>
+      </c>
+      <c r="G7" s="13" t="n">
+        <v>7466239.20952704</v>
+      </c>
+      <c r="H7" s="14" t="n">
+        <v>74.9514186777256</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="8" t="n">
-        <v>99614.3814385983</v>
+        <v>99606.0992116843</v>
       </c>
       <c r="C8" s="9" t="n">
-        <v>8.28222691394331</v>
+        <v>7.50868285847537</v>
       </c>
       <c r="D8" s="10" t="n">
-        <v>0.999916857116469</v>
+        <v>0.999924616234167</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>8.31428835308287E-005</v>
+        <v>7.53837658326408E-005</v>
       </c>
       <c r="F8" s="12" t="n">
-        <v>99610.2403251413</v>
+        <v>99602.3448702551</v>
       </c>
       <c r="G8" s="13" t="n">
-        <v>7466239.20952704</v>
+        <v>7366628.96920189</v>
       </c>
       <c r="H8" s="14" t="n">
-        <v>74.9514186777256</v>
+        <v>73.9576092980634</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="8" t="n">
-        <v>99606.0992116843</v>
+        <v>99598.5905288259</v>
       </c>
       <c r="C9" s="9" t="n">
-        <v>7.50868285847537</v>
+        <v>5.75149918839452</v>
       </c>
       <c r="D9" s="10" t="n">
-        <v>0.999924616234167</v>
+        <v>0.99994225320702</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>7.53837658326408E-005</v>
+        <v>5.77467929802561E-005</v>
       </c>
       <c r="F9" s="12" t="n">
-        <v>99602.3448702551</v>
+        <v>99595.7147792317</v>
       </c>
       <c r="G9" s="13" t="n">
-        <v>7366628.96920189</v>
+        <v>7267026.62433164</v>
       </c>
       <c r="H9" s="14" t="n">
-        <v>73.9576092980634</v>
+        <v>72.9631472267513</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="8" t="n">
-        <v>99598.5905288259</v>
+        <v>99592.8390296375</v>
       </c>
       <c r="C10" s="9" t="n">
-        <v>5.75149918839452</v>
+        <v>3.24877260485664</v>
       </c>
       <c r="D10" s="10" t="n">
-        <v>0.99994225320702</v>
+        <v>0.999967379455827</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>5.77467929802561E-005</v>
+        <v>3.26205441727591E-005</v>
       </c>
       <c r="F10" s="12" t="n">
-        <v>99595.7147792317</v>
+        <v>99591.214643335</v>
       </c>
       <c r="G10" s="13" t="n">
-        <v>7267026.62433164</v>
+        <v>7167430.90955241</v>
       </c>
       <c r="H10" s="14" t="n">
-        <v>72.9631472267513</v>
+        <v>71.9673319827692</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="8" t="n">
-        <v>99592.8390296375</v>
+        <v>99589.5902570326</v>
       </c>
       <c r="C11" s="9" t="n">
-        <v>3.24877260485664</v>
+        <v>1.72504796634894</v>
       </c>
       <c r="D11" s="10" t="n">
-        <v>0.999967379455827</v>
+        <v>0.999982678430929</v>
       </c>
       <c r="E11" s="15" t="n">
-        <v>3.26205441727591E-005</v>
+        <v>1.73215690706459E-005</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>99591.214643335</v>
+        <v>99588.7277330494</v>
       </c>
       <c r="G11" s="13" t="n">
-        <v>7167430.90955241</v>
+        <v>7067839.69490907</v>
       </c>
       <c r="H11" s="14" t="n">
-        <v>71.9673319827692</v>
+        <v>70.9696633620799</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
+      <c r="A12" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="n">
+        <v>99587.8652090663</v>
+      </c>
+      <c r="C12" s="9" t="n">
+        <v>3.01864268639474</v>
+      </c>
+      <c r="D12" s="10" t="n">
+        <v>0.999969688649515</v>
+      </c>
+      <c r="E12" s="15" t="n">
+        <v>3.03113504849203E-005</v>
+      </c>
+      <c r="F12" s="12" t="n">
+        <v>99586.3558877231</v>
+      </c>
+      <c r="G12" s="13" t="n">
+        <v>6968250.96717602</v>
+      </c>
+      <c r="H12" s="14" t="n">
+        <v>69.970884028365</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" s="8" t="n">
-        <v>99589.5902570326</v>
+        <v>99584.8465663799</v>
       </c>
       <c r="C13" s="9" t="n">
-        <v>1.72504796634894</v>
+        <v>7.89108149569074</v>
       </c>
       <c r="D13" s="10" t="n">
-        <v>0.999982678430929</v>
+        <v>0.999920760218369</v>
       </c>
       <c r="E13" s="15" t="n">
-        <v>1.73215690706459E-005</v>
+        <v>7.92397816312071E-005</v>
       </c>
       <c r="F13" s="12" t="n">
-        <v>99588.7277330494</v>
+        <v>99580.901025632</v>
       </c>
       <c r="G13" s="13" t="n">
-        <v>7067839.69490907</v>
+        <v>6868664.6112883</v>
       </c>
       <c r="H13" s="14" t="n">
-        <v>70.9696633620799</v>
+        <v>68.9729898485096</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="8" t="n">
-        <v>99587.8652090663</v>
+        <v>99576.9554848842</v>
       </c>
       <c r="C14" s="9" t="n">
-        <v>3.01864268639474</v>
+        <v>9.89868174221192</v>
       </c>
       <c r="D14" s="10" t="n">
-        <v>0.999969688649515</v>
+        <v>0.999900592645216</v>
       </c>
       <c r="E14" s="15" t="n">
-        <v>3.03113504849203E-005</v>
+        <v>9.94073547842254E-005</v>
       </c>
       <c r="F14" s="12" t="n">
-        <v>99586.3558877231</v>
+        <v>99572.0061440131</v>
       </c>
       <c r="G14" s="13" t="n">
-        <v>6968250.96717602</v>
+        <v>6769083.71026267</v>
       </c>
       <c r="H14" s="14" t="n">
-        <v>69.970884028365</v>
+        <v>67.9784160632449</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" s="8" t="n">
-        <v>99584.8465663799</v>
+        <v>99567.056803142</v>
       </c>
       <c r="C15" s="9" t="n">
-        <v>7.89108149569074</v>
+        <v>9.0962255270133</v>
       </c>
       <c r="D15" s="10" t="n">
-        <v>0.999920760218369</v>
+        <v>0.999908642217426</v>
       </c>
       <c r="E15" s="15" t="n">
-        <v>7.92397816312071E-005</v>
+        <v>9.13577825745662E-005</v>
       </c>
       <c r="F15" s="12" t="n">
-        <v>99580.901025632</v>
+        <v>99562.5086903785</v>
       </c>
       <c r="G15" s="13" t="n">
-        <v>6868664.6112883</v>
+        <v>6669511.70411866</v>
       </c>
       <c r="H15" s="14" t="n">
-        <v>68.9729898485096</v>
+        <v>66.9851245809668</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16" s="8" t="n">
-        <v>99576.9554848842</v>
+        <v>99557.9605776149</v>
       </c>
       <c r="C16" s="9" t="n">
-        <v>9.89868174221192</v>
+        <v>11.4709124645015</v>
       </c>
       <c r="D16" s="10" t="n">
-        <v>0.999900592645216</v>
+        <v>0.999884781564448</v>
       </c>
       <c r="E16" s="15" t="n">
-        <v>9.94073547842254E-005</v>
+        <v>0.000115218435552084</v>
       </c>
       <c r="F16" s="12" t="n">
-        <v>99572.0061440131</v>
+        <v>99552.2251213827</v>
       </c>
       <c r="G16" s="13" t="n">
-        <v>6769083.71026267</v>
+        <v>6569949.19542828</v>
       </c>
       <c r="H16" s="14" t="n">
-        <v>67.9784160632449</v>
+        <v>65.9911990694745</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
+      <c r="A17" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="n">
+        <v>99546.4896651504</v>
+      </c>
+      <c r="C17" s="9" t="n">
+        <v>17.592114974861</v>
+      </c>
+      <c r="D17" s="10" t="n">
+        <v>0.999823277394974</v>
+      </c>
+      <c r="E17" s="15" t="n">
+        <v>0.000176722605026437</v>
+      </c>
+      <c r="F17" s="12" t="n">
+        <v>99537.693607663</v>
+      </c>
+      <c r="G17" s="13" t="n">
+        <v>6470396.9703069</v>
+      </c>
+      <c r="H17" s="14" t="n">
+        <v>64.9987457324884</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B18" s="8" t="n">
-        <v>99567.056803142</v>
+        <v>99528.8975501756</v>
       </c>
       <c r="C18" s="9" t="n">
-        <v>9.0962255270133</v>
+        <v>25.4222553027066</v>
       </c>
       <c r="D18" s="10" t="n">
-        <v>0.999908642217426</v>
+        <v>0.999744574129439</v>
       </c>
       <c r="E18" s="15" t="n">
-        <v>9.13577825745662E-005</v>
+        <v>0.000255425870560851</v>
       </c>
       <c r="F18" s="12" t="n">
-        <v>99562.5086903785</v>
+        <v>99516.1864225242</v>
       </c>
       <c r="G18" s="13" t="n">
-        <v>6669511.70411866</v>
+        <v>6370859.27669923</v>
       </c>
       <c r="H18" s="14" t="n">
-        <v>66.9851245809668</v>
+        <v>64.0101461335637</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B19" s="8" t="n">
-        <v>99557.9605776149</v>
+        <v>99503.4752948729</v>
       </c>
       <c r="C19" s="9" t="n">
-        <v>11.4709124645015</v>
+        <v>33.3124269706022</v>
       </c>
       <c r="D19" s="10" t="n">
-        <v>0.999884781564448</v>
+        <v>0.999665213432276</v>
       </c>
       <c r="E19" s="15" t="n">
-        <v>0.000115218435552084</v>
+        <v>0.000334786567724228</v>
       </c>
       <c r="F19" s="12" t="n">
-        <v>99552.2251213827</v>
+        <v>99486.8190813876</v>
       </c>
       <c r="G19" s="13" t="n">
-        <v>6569949.19542828</v>
+        <v>6271343.09027671</v>
       </c>
       <c r="H19" s="14" t="n">
-        <v>65.9911990694745</v>
+        <v>63.0263724125408</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B20" s="8" t="n">
-        <v>99546.4896651504</v>
+        <v>99470.1628679023</v>
       </c>
       <c r="C20" s="9" t="n">
-        <v>17.592114974861</v>
+        <v>40.2289963498479</v>
       </c>
       <c r="D20" s="10" t="n">
-        <v>0.999823277394974</v>
+        <v>0.99959556720136</v>
       </c>
       <c r="E20" s="15" t="n">
-        <v>0.000176722605026437</v>
+        <v>0.000404432798640129</v>
       </c>
       <c r="F20" s="12" t="n">
-        <v>99537.693607663</v>
+        <v>99450.0483697273</v>
       </c>
       <c r="G20" s="13" t="n">
-        <v>6470396.9703069</v>
+        <v>6171856.27119532</v>
       </c>
       <c r="H20" s="14" t="n">
-        <v>64.9987457324884</v>
+        <v>62.0473124125838</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B21" s="8" t="n">
-        <v>99528.8975501756</v>
+        <v>99429.9338715524</v>
       </c>
       <c r="C21" s="9" t="n">
-        <v>25.4222553027066</v>
+        <v>45.5051985506434</v>
       </c>
       <c r="D21" s="10" t="n">
-        <v>0.999744574129439</v>
+        <v>0.999542339044403</v>
       </c>
       <c r="E21" s="15" t="n">
-        <v>0.000255425870560851</v>
+        <v>0.000457660955597365</v>
       </c>
       <c r="F21" s="12" t="n">
-        <v>99516.1864225242</v>
+        <v>99407.1812722771</v>
       </c>
       <c r="G21" s="13" t="n">
-        <v>6370859.27669923</v>
+        <v>6072406.2228256</v>
       </c>
       <c r="H21" s="14" t="n">
-        <v>64.0101461335637</v>
+        <v>61.0722142355055</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
+      <c r="A22" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8" t="n">
+        <v>99384.4286730018</v>
+      </c>
+      <c r="C22" s="9" t="n">
+        <v>49.002892025077</v>
+      </c>
+      <c r="D22" s="10" t="n">
+        <v>0.999506935918641</v>
+      </c>
+      <c r="E22" s="15" t="n">
+        <v>0.000493064081359313</v>
+      </c>
+      <c r="F22" s="12" t="n">
+        <v>99359.9272269892</v>
+      </c>
+      <c r="G22" s="13" t="n">
+        <v>5972999.04155332</v>
+      </c>
+      <c r="H22" s="14" t="n">
+        <v>60.0999484658295</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B23" s="8" t="n">
-        <v>99503.4752948729</v>
+        <v>99335.4257809767</v>
       </c>
       <c r="C23" s="9" t="n">
-        <v>33.3124269706022</v>
+        <v>51.0588276801864</v>
       </c>
       <c r="D23" s="10" t="n">
-        <v>0.999665213432276</v>
+        <v>0.999485995783692</v>
       </c>
       <c r="E23" s="15" t="n">
-        <v>0.000334786567724228</v>
+        <v>0.000514004216308179</v>
       </c>
       <c r="F23" s="12" t="n">
-        <v>99486.8190813876</v>
+        <v>99309.8963671366</v>
       </c>
       <c r="G23" s="13" t="n">
-        <v>6271343.09027671</v>
+        <v>5873639.11432633</v>
       </c>
       <c r="H23" s="14" t="n">
-        <v>63.0263724125408</v>
+        <v>59.1293495562906</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B24" s="8" t="n">
-        <v>99470.1628679023</v>
+        <v>99284.3669532965</v>
       </c>
       <c r="C24" s="9" t="n">
-        <v>40.2289963498479</v>
+        <v>52.3185556923854</v>
       </c>
       <c r="D24" s="10" t="n">
-        <v>0.99959556720136</v>
+        <v>0.999473043367271</v>
       </c>
       <c r="E24" s="15" t="n">
-        <v>0.000404432798640129</v>
+        <v>0.000526956632729503</v>
       </c>
       <c r="F24" s="12" t="n">
-        <v>99450.0483697273</v>
+        <v>99258.2076754503</v>
       </c>
       <c r="G24" s="13" t="n">
-        <v>6171856.27119532</v>
+        <v>5774329.21795919</v>
       </c>
       <c r="H24" s="14" t="n">
-        <v>62.0473124125838</v>
+        <v>58.1595007870216</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B25" s="8" t="n">
-        <v>99429.9338715524</v>
+        <v>99232.0483976041</v>
       </c>
       <c r="C25" s="9" t="n">
-        <v>45.5051985506434</v>
+        <v>53.5098948927625</v>
       </c>
       <c r="D25" s="10" t="n">
-        <v>0.999542339044403</v>
+        <v>0.999460759948456</v>
       </c>
       <c r="E25" s="15" t="n">
-        <v>0.000457660955597365</v>
+        <v>0.000539240051544176</v>
       </c>
       <c r="F25" s="12" t="n">
-        <v>99407.1812722771</v>
+        <v>99205.2934501577</v>
       </c>
       <c r="G25" s="13" t="n">
-        <v>6072406.2228256</v>
+        <v>5675071.01028374</v>
       </c>
       <c r="H25" s="14" t="n">
-        <v>61.0722142355055</v>
+        <v>57.1899008629229</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B26" s="8" t="n">
-        <v>99384.4286730018</v>
+        <v>99178.5385027114</v>
       </c>
       <c r="C26" s="9" t="n">
-        <v>49.002892025077</v>
+        <v>54.8814920945442</v>
       </c>
       <c r="D26" s="10" t="n">
-        <v>0.999506935918641</v>
+        <v>0.999446639435073</v>
       </c>
       <c r="E26" s="15" t="n">
-        <v>0.000493064081359313</v>
+        <v>0.000553360564927484</v>
       </c>
       <c r="F26" s="12" t="n">
-        <v>99359.9272269892</v>
+        <v>99151.0977566641</v>
       </c>
       <c r="G26" s="13" t="n">
-        <v>5972999.04155332</v>
+        <v>5575865.71683358</v>
       </c>
       <c r="H26" s="14" t="n">
-        <v>60.0999484658295</v>
+        <v>56.2204868211599</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
+      <c r="A27" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="8" t="n">
+        <v>99123.6570106168</v>
+      </c>
+      <c r="C27" s="9" t="n">
+        <v>56.4446803169412</v>
+      </c>
+      <c r="D27" s="10" t="n">
+        <v>0.999430562975387</v>
+      </c>
+      <c r="E27" s="15" t="n">
+        <v>0.000569437024613538</v>
+      </c>
+      <c r="F27" s="12" t="n">
+        <v>99095.4346704583</v>
+      </c>
+      <c r="G27" s="13" t="n">
+        <v>5476714.61907692</v>
+      </c>
+      <c r="H27" s="14" t="n">
+        <v>55.2513374127261</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B28" s="8" t="n">
-        <v>99335.4257809767</v>
+        <v>99067.2123302999</v>
       </c>
       <c r="C28" s="9" t="n">
-        <v>51.0588276801864</v>
+        <v>58.2112385207438</v>
       </c>
       <c r="D28" s="10" t="n">
-        <v>0.999485995783692</v>
+        <v>0.99941240661616</v>
       </c>
       <c r="E28" s="15" t="n">
-        <v>0.000514004216308179</v>
+        <v>0.000587593383839865</v>
       </c>
       <c r="F28" s="12" t="n">
-        <v>99309.8963671366</v>
+        <v>99038.1067110395</v>
       </c>
       <c r="G28" s="13" t="n">
-        <v>5873639.11432633</v>
+        <v>5377619.18440646</v>
       </c>
       <c r="H28" s="14" t="n">
-        <v>59.1293495562906</v>
+        <v>54.2825326150992</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B29" s="8" t="n">
-        <v>99284.3669532965</v>
+        <v>99009.0010917791</v>
       </c>
       <c r="C29" s="9" t="n">
-        <v>52.3185556923854</v>
+        <v>60.1947670056252</v>
       </c>
       <c r="D29" s="10" t="n">
-        <v>0.999473043367271</v>
+        <v>0.999392027327396</v>
       </c>
       <c r="E29" s="15" t="n">
-        <v>0.000526956632729503</v>
+        <v>0.000607972672604029</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>99258.2076754503</v>
+        <v>98978.9037082763</v>
       </c>
       <c r="G29" s="13" t="n">
-        <v>5774329.21795919</v>
+        <v>5278581.07769542</v>
       </c>
       <c r="H29" s="14" t="n">
-        <v>58.1595007870216</v>
+        <v>53.3141534556267</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B30" s="8" t="n">
-        <v>99232.0483976041</v>
+        <v>98948.8063247735</v>
       </c>
       <c r="C30" s="9" t="n">
-        <v>53.5098948927625</v>
+        <v>62.410837076357</v>
       </c>
       <c r="D30" s="10" t="n">
-        <v>0.999460759948456</v>
+        <v>0.999369261344381</v>
       </c>
       <c r="E30" s="15" t="n">
-        <v>0.000539240051544176</v>
+        <v>0.000630738655618667</v>
       </c>
       <c r="F30" s="12" t="n">
-        <v>99205.2934501577</v>
+        <v>98917.6009062353</v>
       </c>
       <c r="G30" s="13" t="n">
-        <v>5675071.01028374</v>
+        <v>5179602.17398715</v>
       </c>
       <c r="H30" s="14" t="n">
-        <v>57.1899008629229</v>
+        <v>52.3462825512666</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B31" s="8" t="n">
-        <v>99178.5385027114</v>
+        <v>98886.3954876972</v>
       </c>
       <c r="C31" s="9" t="n">
-        <v>54.8814920945442</v>
+        <v>64.8771656153986</v>
       </c>
       <c r="D31" s="10" t="n">
-        <v>0.999446639435073</v>
+        <v>0.99934392223222</v>
       </c>
       <c r="E31" s="15" t="n">
-        <v>0.000553360564927484</v>
+        <v>0.000656077767780256</v>
       </c>
       <c r="F31" s="12" t="n">
-        <v>99151.0977566641</v>
+        <v>98853.9569048895</v>
       </c>
       <c r="G31" s="13" t="n">
-        <v>5575865.71683358</v>
+        <v>5080684.57308091</v>
       </c>
       <c r="H31" s="14" t="n">
-        <v>56.2204868211599</v>
+        <v>51.3790046449111</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="14"/>
+      <c r="A32" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="8" t="n">
+        <v>98821.5183220818</v>
+      </c>
+      <c r="C32" s="9" t="n">
+        <v>67.6138166735327</v>
+      </c>
+      <c r="D32" s="10" t="n">
+        <v>0.999315798645664</v>
+      </c>
+      <c r="E32" s="15" t="n">
+        <v>0.000684201354336273</v>
+      </c>
+      <c r="F32" s="12" t="n">
+        <v>98787.711413745</v>
+      </c>
+      <c r="G32" s="13" t="n">
+        <v>4981830.61617602</v>
+      </c>
+      <c r="H32" s="14" t="n">
+        <v>50.4124071433421</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B33" s="8" t="n">
-        <v>99123.6570106168</v>
+        <v>98753.9045054082</v>
       </c>
       <c r="C33" s="9" t="n">
-        <v>56.4446803169412</v>
+        <v>70.6434326161398</v>
       </c>
       <c r="D33" s="10" t="n">
-        <v>0.999430562975387</v>
+        <v>0.999284651751544</v>
       </c>
       <c r="E33" s="15" t="n">
-        <v>0.000569437024613538</v>
+        <v>0.000715348248456147</v>
       </c>
       <c r="F33" s="12" t="n">
-        <v>99095.4346704583</v>
+        <v>98718.5827891002</v>
       </c>
       <c r="G33" s="13" t="n">
-        <v>5476714.61907692</v>
+        <v>4883042.90476228</v>
       </c>
       <c r="H33" s="14" t="n">
-        <v>55.2513374127261</v>
+        <v>49.4465806614751</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B34" s="8" t="n">
-        <v>99067.2123302999</v>
+        <v>98683.2610727921</v>
       </c>
       <c r="C34" s="9" t="n">
-        <v>58.2112385207438</v>
+        <v>73.9914977533772</v>
       </c>
       <c r="D34" s="10" t="n">
-        <v>0.99941240661616</v>
+        <v>0.999250212275628</v>
       </c>
       <c r="E34" s="15" t="n">
-        <v>0.000587593383839865</v>
+        <v>0.000749787724372027</v>
       </c>
       <c r="F34" s="12" t="n">
-        <v>99038.1067110395</v>
+        <v>98646.2653239154</v>
       </c>
       <c r="G34" s="13" t="n">
-        <v>5377619.18440646</v>
+        <v>4784324.32197318</v>
       </c>
       <c r="H34" s="14" t="n">
-        <v>54.2825326150992</v>
+        <v>48.4816195772462</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B35" s="8" t="n">
-        <v>99009.0010917791</v>
+        <v>98609.2695750387</v>
       </c>
       <c r="C35" s="9" t="n">
-        <v>60.1947670056252</v>
+        <v>77.686637797</v>
       </c>
       <c r="D35" s="10" t="n">
-        <v>0.999392027327396</v>
+        <v>0.999212177129678</v>
       </c>
       <c r="E35" s="15" t="n">
-        <v>0.000607972672604029</v>
+        <v>0.000787822870322435</v>
       </c>
       <c r="F35" s="12" t="n">
-        <v>98978.9037082763</v>
+        <v>98570.4262561402</v>
       </c>
       <c r="G35" s="13" t="n">
-        <v>5278581.07769542</v>
+        <v>4685678.05664926</v>
       </c>
       <c r="H35" s="14" t="n">
-        <v>53.3141534556267</v>
+        <v>47.5176226012261</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B36" s="8" t="n">
-        <v>98948.8063247735</v>
+        <v>98531.5829372417</v>
       </c>
       <c r="C36" s="9" t="n">
-        <v>62.410837076357</v>
+        <v>81.7609589280764</v>
       </c>
       <c r="D36" s="10" t="n">
-        <v>0.999369261344381</v>
+        <v>0.999170205567689</v>
       </c>
       <c r="E36" s="15" t="n">
-        <v>0.000630738655618667</v>
+        <v>0.000829794432310656</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>98917.6009062353</v>
+        <v>98490.7024577777</v>
       </c>
       <c r="G36" s="13" t="n">
-        <v>5179602.17398715</v>
+        <v>4587107.63039312</v>
       </c>
       <c r="H36" s="14" t="n">
-        <v>52.3462825512666</v>
+        <v>46.5546933648149</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="14"/>
+      <c r="A37" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="8" t="n">
+        <v>98449.8219783136</v>
+      </c>
+      <c r="C37" s="9" t="n">
+        <v>86.2504307271011</v>
+      </c>
+      <c r="D37" s="10" t="n">
+        <v>0.999123914812704</v>
+      </c>
+      <c r="E37" s="15" t="n">
+        <v>0.000876085187295666</v>
+      </c>
+      <c r="F37" s="12" t="n">
+        <v>98406.6967629501</v>
+      </c>
+      <c r="G37" s="13" t="n">
+        <v>4488616.92793534</v>
+      </c>
+      <c r="H37" s="14" t="n">
+        <v>45.592941030651</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B38" s="8" t="n">
-        <v>98886.3954876972</v>
+        <v>98363.5715475865</v>
       </c>
       <c r="C38" s="9" t="n">
-        <v>64.8771656153986</v>
+        <v>91.1953177128744</v>
       </c>
       <c r="D38" s="10" t="n">
-        <v>0.99934392223222</v>
+        <v>0.999072875087006</v>
       </c>
       <c r="E38" s="15" t="n">
-        <v>0.000656077767780256</v>
+        <v>0.000927124912994415</v>
       </c>
       <c r="F38" s="12" t="n">
-        <v>98853.9569048895</v>
+        <v>98317.9738887301</v>
       </c>
       <c r="G38" s="13" t="n">
-        <v>5080684.57308091</v>
+        <v>4390210.23117239</v>
       </c>
       <c r="H38" s="14" t="n">
-        <v>51.3790046449111</v>
+        <v>44.6324809286585</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B39" s="8" t="n">
-        <v>98821.5183220818</v>
+        <v>98272.3762298737</v>
       </c>
       <c r="C39" s="9" t="n">
-        <v>67.6138166735327</v>
+        <v>96.6406647543918</v>
       </c>
       <c r="D39" s="10" t="n">
-        <v>0.999315798645664</v>
+        <v>0.999016603968868</v>
       </c>
       <c r="E39" s="15" t="n">
-        <v>0.000684201354336273</v>
+        <v>0.000983396031132236</v>
       </c>
       <c r="F39" s="12" t="n">
-        <v>98787.711413745</v>
+        <v>98224.0558974965</v>
       </c>
       <c r="G39" s="13" t="n">
-        <v>4981830.61617602</v>
+        <v>4291892.25728366</v>
       </c>
       <c r="H39" s="14" t="n">
-        <v>50.4124071433421</v>
+        <v>43.6734352209444</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B40" s="8" t="n">
-        <v>98753.9045054082</v>
+        <v>98175.7355651193</v>
       </c>
       <c r="C40" s="9" t="n">
-        <v>70.6434326161398</v>
+        <v>102.636842156615</v>
       </c>
       <c r="D40" s="10" t="n">
-        <v>0.999284651751544</v>
+        <v>0.998954559988109</v>
       </c>
       <c r="E40" s="15" t="n">
-        <v>0.000715348248456147</v>
+        <v>0.00104544001189114</v>
       </c>
       <c r="F40" s="12" t="n">
-        <v>98718.5827891002</v>
+        <v>98124.417144041</v>
       </c>
       <c r="G40" s="13" t="n">
-        <v>4883042.90476228</v>
+        <v>4193668.20138617</v>
       </c>
       <c r="H40" s="14" t="n">
-        <v>49.4465806614751</v>
+        <v>42.7159335985269</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B41" s="8" t="n">
-        <v>98683.2610727921</v>
+        <v>98073.0987229627</v>
       </c>
       <c r="C41" s="9" t="n">
-        <v>73.9914977533772</v>
+        <v>109.240156768385</v>
       </c>
       <c r="D41" s="10" t="n">
-        <v>0.999250212275628</v>
+        <v>0.99888613536035</v>
       </c>
       <c r="E41" s="15" t="n">
-        <v>0.000749787724372027</v>
+        <v>0.00111386463964984</v>
       </c>
       <c r="F41" s="12" t="n">
-        <v>98646.2653239154</v>
+        <v>98018.4786445785</v>
       </c>
       <c r="G41" s="13" t="n">
-        <v>4784324.32197318</v>
+        <v>4095543.78424212</v>
       </c>
       <c r="H41" s="14" t="n">
-        <v>48.4816195772462</v>
+        <v>41.7601140126227</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="14"/>
+      <c r="A42" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="8" t="n">
+        <v>97963.8585661943</v>
+      </c>
+      <c r="C42" s="9" t="n">
+        <v>116.51353600416</v>
+      </c>
+      <c r="D42" s="10" t="n">
+        <v>0.998810647745919</v>
+      </c>
+      <c r="E42" s="15" t="n">
+        <v>0.00118935225408095</v>
+      </c>
+      <c r="F42" s="12" t="n">
+        <v>97905.6017981922</v>
+      </c>
+      <c r="G42" s="13" t="n">
+        <v>3997525.30559755</v>
+      </c>
+      <c r="H42" s="14" t="n">
+        <v>40.8061234429268</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B43" s="8" t="n">
-        <v>98609.2695750387</v>
+        <v>97847.3450301901</v>
       </c>
       <c r="C43" s="9" t="n">
-        <v>77.686637797</v>
+        <v>124.527292193437</v>
       </c>
       <c r="D43" s="10" t="n">
-        <v>0.999212177129678</v>
+        <v>0.998727330903511</v>
       </c>
       <c r="E43" s="15" t="n">
-        <v>0.000787822870322435</v>
+        <v>0.00127266909648917</v>
       </c>
       <c r="F43" s="12" t="n">
-        <v>98570.4262561402</v>
+        <v>97785.0813840934</v>
       </c>
       <c r="G43" s="13" t="n">
-        <v>4685678.05664926</v>
+        <v>3899619.70379936</v>
       </c>
       <c r="H43" s="14" t="n">
-        <v>47.5176226012261</v>
+        <v>39.85411870497</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B44" s="8" t="n">
-        <v>98531.5829372417</v>
+        <v>97722.8177379967</v>
       </c>
       <c r="C44" s="9" t="n">
-        <v>81.7609589280764</v>
+        <v>133.359975144413</v>
       </c>
       <c r="D44" s="10" t="n">
-        <v>0.999170205567689</v>
+        <v>0.998635324090818</v>
       </c>
       <c r="E44" s="15" t="n">
-        <v>0.000829794432310656</v>
+        <v>0.00136467590918185</v>
       </c>
       <c r="F44" s="12" t="n">
-        <v>98490.7024577777</v>
+        <v>97656.1377504245</v>
       </c>
       <c r="G44" s="13" t="n">
-        <v>4587107.63039312</v>
+        <v>3801834.62241526</v>
       </c>
       <c r="H44" s="14" t="n">
-        <v>46.5546933648149</v>
+        <v>38.9042672982303</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B45" s="8" t="n">
-        <v>98449.8219783136</v>
+        <v>97589.4577628523</v>
       </c>
       <c r="C45" s="9" t="n">
-        <v>86.2504307271011</v>
+        <v>143.099321195405</v>
       </c>
       <c r="D45" s="10" t="n">
-        <v>0.999123914812704</v>
+        <v>0.998533660044068</v>
       </c>
       <c r="E45" s="15" t="n">
-        <v>0.000876085187295666</v>
+        <v>0.0014663399559319</v>
       </c>
       <c r="F45" s="12" t="n">
-        <v>98406.6967629501</v>
+        <v>97517.9081022546</v>
       </c>
       <c r="G45" s="13" t="n">
-        <v>4488616.92793534</v>
+        <v>3704178.48466484</v>
       </c>
       <c r="H45" s="14" t="n">
-        <v>45.592941030651</v>
+        <v>37.9567482961755</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B46" s="8" t="n">
-        <v>98363.5715475865</v>
+        <v>97446.3584416569</v>
       </c>
       <c r="C46" s="9" t="n">
-        <v>91.1953177128744</v>
+        <v>153.843307277595</v>
       </c>
       <c r="D46" s="10" t="n">
-        <v>0.999072875087006</v>
+        <v>0.99842125134548</v>
       </c>
       <c r="E46" s="15" t="n">
-        <v>0.000927124912994415</v>
+        <v>0.0015787486545196</v>
       </c>
       <c r="F46" s="12" t="n">
-        <v>98317.9738887301</v>
+        <v>97369.4367880181</v>
       </c>
       <c r="G46" s="13" t="n">
-        <v>4390210.23117239</v>
+        <v>3606660.57656258</v>
       </c>
       <c r="H46" s="14" t="n">
-        <v>44.6324809286585</v>
+        <v>37.0117532788253</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="14"/>
+      <c r="A47" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="8" t="n">
+        <v>97292.5151343793</v>
+      </c>
+      <c r="C47" s="9" t="n">
+        <v>165.701318560212</v>
+      </c>
+      <c r="D47" s="10" t="n">
+        <v>0.998296874961745</v>
+      </c>
+      <c r="E47" s="15" t="n">
+        <v>0.00170312503825558</v>
+      </c>
+      <c r="F47" s="12" t="n">
+        <v>97209.6644750992</v>
+      </c>
+      <c r="G47" s="13" t="n">
+        <v>3509291.13977457</v>
+      </c>
+      <c r="H47" s="14" t="n">
+        <v>36.0694873077089</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B48" s="8" t="n">
-        <v>98272.3762298737</v>
+        <v>97126.813815819</v>
       </c>
       <c r="C48" s="9" t="n">
-        <v>96.6406647543918</v>
+        <v>178.795438003071</v>
       </c>
       <c r="D48" s="10" t="n">
-        <v>0.999016603968868</v>
+        <v>0.998159154707349</v>
       </c>
       <c r="E48" s="15" t="n">
-        <v>0.000983396031132236</v>
+        <v>0.00184084529265128</v>
       </c>
       <c r="F48" s="12" t="n">
-        <v>98224.0558974965</v>
+        <v>97037.4160968175</v>
       </c>
       <c r="G48" s="13" t="n">
-        <v>4291892.25728366</v>
+        <v>3412081.47529947</v>
       </c>
       <c r="H48" s="14" t="n">
-        <v>43.6734352209444</v>
+        <v>35.1301699422548</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B49" s="8" t="n">
-        <v>98175.7355651193</v>
+        <v>96948.018377816</v>
       </c>
       <c r="C49" s="9" t="n">
-        <v>102.636842156615</v>
+        <v>193.261865487584</v>
       </c>
       <c r="D49" s="10" t="n">
-        <v>0.998954559988109</v>
+        <v>0.99800654135359</v>
       </c>
       <c r="E49" s="15" t="n">
-        <v>0.00104544001189114</v>
+        <v>0.00199345864641008</v>
       </c>
       <c r="F49" s="12" t="n">
-        <v>98124.417144041</v>
+        <v>96851.3874450722</v>
       </c>
       <c r="G49" s="13" t="n">
-        <v>4193668.20138617</v>
+        <v>3315044.05920265</v>
       </c>
       <c r="H49" s="14" t="n">
-        <v>42.7159335985269</v>
+        <v>34.1940362956527</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B50" s="8" t="n">
-        <v>98073.0987229627</v>
+        <v>96754.7565123284</v>
       </c>
       <c r="C50" s="9" t="n">
-        <v>109.240156768385</v>
+        <v>209.252472982495</v>
       </c>
       <c r="D50" s="10" t="n">
-        <v>0.99888613536035</v>
+        <v>0.997837290066914</v>
       </c>
       <c r="E50" s="15" t="n">
-        <v>0.00111386463964984</v>
+        <v>0.00216270993308567</v>
       </c>
       <c r="F50" s="12" t="n">
-        <v>98018.4786445785</v>
+        <v>96650.1302758372</v>
       </c>
       <c r="G50" s="13" t="n">
-        <v>4095543.78424212</v>
+        <v>3218192.67175758</v>
       </c>
       <c r="H50" s="14" t="n">
-        <v>41.7601140126227</v>
+        <v>33.2613381270565</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B51" s="8" t="n">
-        <v>97963.8585661943</v>
+        <v>96545.5040393459</v>
       </c>
       <c r="C51" s="9" t="n">
-        <v>116.51353600416</v>
+        <v>226.936500230018</v>
       </c>
       <c r="D51" s="10" t="n">
-        <v>0.998810647745919</v>
+        <v>0.997649434818451</v>
       </c>
       <c r="E51" s="15" t="n">
-        <v>0.00118935225408095</v>
+        <v>0.00235056518154937</v>
       </c>
       <c r="F51" s="12" t="n">
-        <v>97905.6017981922</v>
+        <v>96432.0357892309</v>
       </c>
       <c r="G51" s="13" t="n">
-        <v>3997525.30559755</v>
+        <v>3121542.54148174</v>
       </c>
       <c r="H51" s="14" t="n">
-        <v>40.8061234429268</v>
+        <v>32.3323449656402</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="14"/>
+      <c r="A52" s="7" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="8" t="n">
+        <v>96318.5675391159</v>
+      </c>
+      <c r="C52" s="9" t="n">
+        <v>246.502392462018</v>
+      </c>
+      <c r="D52" s="10" t="n">
+        <v>0.997440759359696</v>
+      </c>
+      <c r="E52" s="15" t="n">
+        <v>0.00255924064030459</v>
+      </c>
+      <c r="F52" s="12" t="n">
+        <v>96195.3163428849</v>
+      </c>
+      <c r="G52" s="13" t="n">
+        <v>3025110.50569251</v>
+      </c>
+      <c r="H52" s="14" t="n">
+        <v>31.407345260445</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B53" s="8" t="n">
-        <v>97847.3450301901</v>
+        <v>96072.0651466539</v>
       </c>
       <c r="C53" s="9" t="n">
-        <v>124.527292193437</v>
+        <v>268.159777355322</v>
       </c>
       <c r="D53" s="10" t="n">
-        <v>0.998727330903511</v>
+        <v>0.997208764306815</v>
       </c>
       <c r="E53" s="15" t="n">
-        <v>0.00127266909648917</v>
+        <v>0.0027912356931849</v>
       </c>
       <c r="F53" s="12" t="n">
-        <v>97785.0813840934</v>
+        <v>95937.9852579762</v>
       </c>
       <c r="G53" s="13" t="n">
-        <v>3899619.70379936</v>
+        <v>2928915.18934962</v>
       </c>
       <c r="H53" s="14" t="n">
-        <v>39.85411870497</v>
+        <v>30.4866475481571</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B54" s="8" t="n">
-        <v>97722.8177379967</v>
+        <v>95803.9053692985</v>
       </c>
       <c r="C54" s="9" t="n">
-        <v>133.359975144413</v>
+        <v>292.141572407752</v>
       </c>
       <c r="D54" s="10" t="n">
-        <v>0.998635324090818</v>
+        <v>0.996950629817421</v>
       </c>
       <c r="E54" s="15" t="n">
-        <v>0.00136467590918185</v>
+        <v>0.00304937018257892</v>
       </c>
       <c r="F54" s="12" t="n">
-        <v>97656.1377504245</v>
+        <v>95657.8345830947</v>
       </c>
       <c r="G54" s="13" t="n">
-        <v>3801834.62241526</v>
+        <v>2832977.20409165</v>
       </c>
       <c r="H54" s="14" t="n">
-        <v>38.9042672982303</v>
+        <v>29.5705816289145</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B55" s="8" t="n">
-        <v>97589.4577628523</v>
+        <v>95511.7637968908</v>
       </c>
       <c r="C55" s="9" t="n">
-        <v>143.099321195405</v>
+        <v>318.706205659197</v>
       </c>
       <c r="D55" s="10" t="n">
-        <v>0.998533660044068</v>
+        <v>0.996663173278457</v>
       </c>
       <c r="E55" s="15" t="n">
-        <v>0.0014663399559319</v>
+        <v>0.00333682672154338</v>
       </c>
       <c r="F55" s="12" t="n">
-        <v>97517.9081022546</v>
+        <v>95352.4106940612</v>
       </c>
       <c r="G55" s="13" t="n">
-        <v>3704178.48466484</v>
+        <v>2737319.36950855</v>
       </c>
       <c r="H55" s="14" t="n">
-        <v>37.9567482961755</v>
+        <v>28.6594997379544</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B56" s="8" t="n">
-        <v>97446.3584416569</v>
+        <v>95193.0575912316</v>
       </c>
       <c r="C56" s="9" t="n">
-        <v>153.843307277595</v>
+        <v>348.139921566137</v>
       </c>
       <c r="D56" s="10" t="n">
-        <v>0.99842125134548</v>
+        <v>0.996342801351533</v>
       </c>
       <c r="E56" s="15" t="n">
-        <v>0.0015787486545196</v>
+        <v>0.00365719864846743</v>
       </c>
       <c r="F56" s="12" t="n">
-        <v>97369.4367880181</v>
+        <v>95018.9876304485</v>
       </c>
       <c r="G56" s="13" t="n">
-        <v>3606660.57656258</v>
+        <v>2641966.95881449</v>
       </c>
       <c r="H56" s="14" t="n">
-        <v>37.0117532788253</v>
+        <v>27.7537776983628</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="14"/>
+      <c r="A57" s="7" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="8" t="n">
+        <v>94844.9176696655</v>
+      </c>
+      <c r="C57" s="9" t="n">
+        <v>380.759129092039</v>
+      </c>
+      <c r="D57" s="10" t="n">
+        <v>0.99598545564225</v>
+      </c>
+      <c r="E57" s="15" t="n">
+        <v>0.0040145443577502</v>
+      </c>
+      <c r="F57" s="12" t="n">
+        <v>94654.5381051194</v>
+      </c>
+      <c r="G57" s="13" t="n">
+        <v>2546947.97118404</v>
+      </c>
+      <c r="H57" s="14" t="n">
+        <v>26.8538160374052</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B58" s="8" t="n">
-        <v>97292.5151343793</v>
+        <v>94464.1585405734</v>
       </c>
       <c r="C58" s="9" t="n">
-        <v>165.701318560212</v>
+        <v>416.912729757751</v>
       </c>
       <c r="D58" s="10" t="n">
-        <v>0.998296874961745</v>
+        <v>0.995586551172436</v>
       </c>
       <c r="E58" s="15" t="n">
-        <v>0.00170312503825558</v>
+        <v>0.00441344882756429</v>
       </c>
       <c r="F58" s="12" t="n">
-        <v>97209.6644750992</v>
+        <v>94255.7021756945</v>
       </c>
       <c r="G58" s="13" t="n">
-        <v>3509291.13977457</v>
+        <v>2452293.43307892</v>
       </c>
       <c r="H58" s="14" t="n">
-        <v>36.0694873077089</v>
+        <v>25.9600410458919</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B59" s="8" t="n">
-        <v>97126.813815819</v>
+        <v>94047.2458108157</v>
       </c>
       <c r="C59" s="9" t="n">
-        <v>178.795438003071</v>
+        <v>456.984338368464</v>
       </c>
       <c r="D59" s="10" t="n">
-        <v>0.998159154707349</v>
+        <v>0.995140906738644</v>
       </c>
       <c r="E59" s="15" t="n">
-        <v>0.00184084529265128</v>
+        <v>0.00485909326135647</v>
       </c>
       <c r="F59" s="12" t="n">
-        <v>97037.4160968175</v>
+        <v>93818.7536416314</v>
       </c>
       <c r="G59" s="13" t="n">
-        <v>3412081.47529947</v>
+        <v>2358037.73090323</v>
       </c>
       <c r="H59" s="14" t="n">
-        <v>35.1301699422548</v>
+        <v>25.0729057568217</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B60" s="8" t="n">
-        <v>96948.018377816</v>
+        <v>93590.2614724472</v>
       </c>
       <c r="C60" s="9" t="n">
-        <v>193.261865487584</v>
+        <v>501.394277052954</v>
       </c>
       <c r="D60" s="10" t="n">
-        <v>0.99800654135359</v>
+        <v>0.994642666136791</v>
       </c>
       <c r="E60" s="15" t="n">
-        <v>0.00199345864641008</v>
+        <v>0.0053573338632093</v>
       </c>
       <c r="F60" s="12" t="n">
-        <v>96851.3874450722</v>
+        <v>93339.5643339207</v>
       </c>
       <c r="G60" s="13" t="n">
-        <v>3315044.05920265</v>
+        <v>2264218.9772616</v>
       </c>
       <c r="H60" s="14" t="n">
-        <v>34.1940362956527</v>
+        <v>24.1928908161901</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B61" s="8" t="n">
-        <v>96754.7565123284</v>
+        <v>93088.8671953942</v>
       </c>
       <c r="C61" s="9" t="n">
-        <v>209.252472982495</v>
+        <v>550.601182544822</v>
       </c>
       <c r="D61" s="10" t="n">
-        <v>0.997837290066914</v>
+        <v>0.994085209121848</v>
       </c>
       <c r="E61" s="15" t="n">
-        <v>0.00216270993308567</v>
+        <v>0.0059147908781519</v>
       </c>
       <c r="F61" s="12" t="n">
-        <v>96650.1302758372</v>
+        <v>92813.5666041218</v>
       </c>
       <c r="G61" s="13" t="n">
-        <v>3218192.67175758</v>
+        <v>2170879.41292768</v>
       </c>
       <c r="H61" s="14" t="n">
-        <v>33.2613381270565</v>
+        <v>23.3205052154194</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="14"/>
+      <c r="A62" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="8" t="n">
+        <v>92538.2660128494</v>
+      </c>
+      <c r="C62" s="9" t="n">
+        <v>605.103015526576</v>
+      </c>
+      <c r="D62" s="10" t="n">
+        <v>0.993461050853897</v>
+      </c>
+      <c r="E62" s="15" t="n">
+        <v>0.006538949146103</v>
+      </c>
+      <c r="F62" s="12" t="n">
+        <v>92235.7145050861</v>
+      </c>
+      <c r="G62" s="13" t="n">
+        <v>2078065.84632355</v>
+      </c>
+      <c r="H62" s="14" t="n">
+        <v>22.4562868514848</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B63" s="8" t="n">
-        <v>96545.5040393459</v>
+        <v>91933.1629973228</v>
       </c>
       <c r="C63" s="9" t="n">
-        <v>226.936500230018</v>
+        <v>665.437197385953</v>
       </c>
       <c r="D63" s="10" t="n">
-        <v>0.997649434818451</v>
+        <v>0.992761728459127</v>
       </c>
       <c r="E63" s="15" t="n">
-        <v>0.00235056518154937</v>
+        <v>0.00723827154087295</v>
       </c>
       <c r="F63" s="12" t="n">
-        <v>96432.0357892309</v>
+        <v>91600.4443986299</v>
       </c>
       <c r="G63" s="13" t="n">
-        <v>3121542.54148174</v>
+        <v>1985830.13181847</v>
       </c>
       <c r="H63" s="14" t="n">
-        <v>32.3323449656402</v>
+        <v>21.6008028775894</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B64" s="8" t="n">
-        <v>96318.5675391159</v>
+        <v>91267.7257999369</v>
       </c>
       <c r="C64" s="9" t="n">
-        <v>246.502392462018</v>
+        <v>732.179521858881</v>
       </c>
       <c r="D64" s="10" t="n">
-        <v>0.997440759359696</v>
+        <v>0.991977673208776</v>
       </c>
       <c r="E64" s="15" t="n">
-        <v>0.00255924064030459</v>
+        <v>0.00802232679122364</v>
       </c>
       <c r="F64" s="12" t="n">
-        <v>96195.3163428849</v>
+        <v>90901.6360390075</v>
       </c>
       <c r="G64" s="13" t="n">
-        <v>3025110.50569251</v>
+        <v>1894229.68741984</v>
       </c>
       <c r="H64" s="14" t="n">
-        <v>31.407345260445</v>
+        <v>20.7546498043797</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="n">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B65" s="8" t="n">
-        <v>96072.0651466539</v>
+        <v>90535.546278078</v>
       </c>
       <c r="C65" s="9" t="n">
-        <v>268.159777355322</v>
+        <v>805.941394785768</v>
       </c>
       <c r="D65" s="10" t="n">
-        <v>0.997208764306815</v>
+        <v>0.991098066694044</v>
       </c>
       <c r="E65" s="15" t="n">
-        <v>0.0027912356931849</v>
+        <v>0.0089019333059563</v>
       </c>
       <c r="F65" s="12" t="n">
-        <v>95937.9852579762</v>
+        <v>90132.5755806851</v>
       </c>
       <c r="G65" s="13" t="n">
-        <v>2928915.18934962</v>
+        <v>1803328.05138083</v>
       </c>
       <c r="H65" s="14" t="n">
-        <v>30.4866475481571</v>
+        <v>19.918453309399</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B66" s="8" t="n">
-        <v>95803.9053692985</v>
+        <v>89729.6048832922</v>
       </c>
       <c r="C66" s="9" t="n">
-        <v>292.141572407752</v>
+        <v>887.364842966665</v>
       </c>
       <c r="D66" s="10" t="n">
-        <v>0.996950629817421</v>
+        <v>0.990110679255516</v>
       </c>
       <c r="E66" s="15" t="n">
-        <v>0.00304937018257892</v>
+        <v>0.00988932074448363</v>
       </c>
       <c r="F66" s="12" t="n">
-        <v>95657.8345830947</v>
+        <v>89285.9224618089</v>
       </c>
       <c r="G66" s="13" t="n">
-        <v>2832977.20409165</v>
+        <v>1713195.47580015</v>
       </c>
       <c r="H66" s="14" t="n">
-        <v>29.5705816289145</v>
+        <v>19.0928677110351</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="14"/>
+      <c r="A67" s="7" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="8" t="n">
+        <v>88842.2400403256</v>
+      </c>
+      <c r="C67" s="9" t="n">
+        <v>977.114602030997</v>
+      </c>
+      <c r="D67" s="10" t="n">
+        <v>0.989001688818433</v>
+      </c>
+      <c r="E67" s="15" t="n">
+        <v>0.0109983111815674</v>
+      </c>
+      <c r="F67" s="12" t="n">
+        <v>88353.6827393101</v>
+      </c>
+      <c r="G67" s="13" t="n">
+        <v>1623909.55333834</v>
+      </c>
+      <c r="H67" s="14" t="n">
+        <v>18.278575062957</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="n">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B68" s="8" t="n">
-        <v>95511.7637968908</v>
+        <v>87865.1254382946</v>
       </c>
       <c r="C68" s="9" t="n">
-        <v>318.706205659197</v>
+        <v>1075.86644394629</v>
       </c>
       <c r="D68" s="10" t="n">
-        <v>0.996663173278457</v>
+        <v>0.987755478199347</v>
       </c>
       <c r="E68" s="15" t="n">
-        <v>0.00333682672154338</v>
+        <v>0.0122445218006527</v>
       </c>
       <c r="F68" s="12" t="n">
-        <v>95352.4106940612</v>
+        <v>87327.1922163214</v>
       </c>
       <c r="G68" s="13" t="n">
-        <v>2737319.36950855</v>
+        <v>1535555.87059903</v>
       </c>
       <c r="H68" s="14" t="n">
-        <v>28.6594997379544</v>
+        <v>17.4762838263676</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="n">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B69" s="8" t="n">
-        <v>95193.0575912316</v>
+        <v>86789.2589943483</v>
       </c>
       <c r="C69" s="9" t="n">
-        <v>348.139921566137</v>
+        <v>1184.29074029793</v>
       </c>
       <c r="D69" s="10" t="n">
-        <v>0.996342801351533</v>
+        <v>0.986354408897822</v>
       </c>
       <c r="E69" s="15" t="n">
-        <v>0.00365719864846743</v>
+        <v>0.0136455911021784</v>
       </c>
       <c r="F69" s="12" t="n">
-        <v>95018.9876304485</v>
+        <v>86197.1136241993</v>
       </c>
       <c r="G69" s="13" t="n">
-        <v>2641966.95881449</v>
+        <v>1448228.67838271</v>
       </c>
       <c r="H69" s="14" t="n">
-        <v>27.7537776983628</v>
+        <v>16.6867270807902</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="n">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B70" s="8" t="n">
-        <v>94844.9176696655</v>
+        <v>85604.9682540504</v>
       </c>
       <c r="C70" s="9" t="n">
-        <v>380.759129092039</v>
+        <v>1303.03008458833</v>
       </c>
       <c r="D70" s="10" t="n">
-        <v>0.99598545564225</v>
+        <v>0.984778569384883</v>
       </c>
       <c r="E70" s="15" t="n">
-        <v>0.0040145443577502</v>
+        <v>0.0152214306151171</v>
       </c>
       <c r="F70" s="12" t="n">
-        <v>94654.5381051194</v>
+        <v>84953.4532117562</v>
       </c>
       <c r="G70" s="13" t="n">
-        <v>2546947.97118404</v>
+        <v>1362031.56475851</v>
       </c>
       <c r="H70" s="14" t="n">
-        <v>26.8538160374052</v>
+        <v>15.910660240144</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="n">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B71" s="8" t="n">
-        <v>94464.1585405734</v>
+        <v>84301.938169462</v>
       </c>
       <c r="C71" s="9" t="n">
-        <v>416.912729757751</v>
+        <v>1432.66962800529</v>
       </c>
       <c r="D71" s="10" t="n">
-        <v>0.995586551172436</v>
+        <v>0.983005495969436</v>
       </c>
       <c r="E71" s="15" t="n">
-        <v>0.00441344882756429</v>
+        <v>0.0169945040305641</v>
       </c>
       <c r="F71" s="12" t="n">
-        <v>94255.7021756945</v>
+        <v>83585.6033554594</v>
       </c>
       <c r="G71" s="13" t="n">
-        <v>2452293.43307892</v>
+        <v>1277078.11154675</v>
       </c>
       <c r="H71" s="14" t="n">
-        <v>25.9600410458919</v>
+        <v>15.1488582502053</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="14"/>
+      <c r="A72" s="7" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="8" t="n">
+        <v>82869.2685414567</v>
+      </c>
+      <c r="C72" s="9" t="n">
+        <v>1573.6986390541</v>
+      </c>
+      <c r="D72" s="10" t="n">
+        <v>0.981009864491964</v>
+      </c>
+      <c r="E72" s="15" t="n">
+        <v>0.0189901355080361</v>
+      </c>
+      <c r="F72" s="12" t="n">
+        <v>82082.4192219297</v>
+      </c>
+      <c r="G72" s="13" t="n">
+        <v>1193492.50819129</v>
+      </c>
+      <c r="H72" s="14" t="n">
+        <v>14.4021122570211</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="n">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B73" s="8" t="n">
-        <v>94047.2458108157</v>
+        <v>81295.5699024026</v>
       </c>
       <c r="C73" s="9" t="n">
-        <v>456.984338368464</v>
+        <v>1726.46171012997</v>
       </c>
       <c r="D73" s="10" t="n">
-        <v>0.995140906738644</v>
+        <v>0.978763151396778</v>
       </c>
       <c r="E73" s="15" t="n">
-        <v>0.00485909326135647</v>
+        <v>0.0212368486032219</v>
       </c>
       <c r="F73" s="12" t="n">
-        <v>93818.7536416314</v>
+        <v>80432.3390473377</v>
       </c>
       <c r="G73" s="13" t="n">
-        <v>2358037.73090323</v>
+        <v>1111410.08896936</v>
       </c>
       <c r="H73" s="14" t="n">
-        <v>25.0729057568217</v>
+        <v>13.6712257544124</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B74" s="8" t="n">
-        <v>93590.2614724472</v>
+        <v>79569.1081922727</v>
       </c>
       <c r="C74" s="9" t="n">
-        <v>501.394277052954</v>
+        <v>1891.09805069081</v>
       </c>
       <c r="D74" s="10" t="n">
-        <v>0.994642666136791</v>
+        <v>0.976233263214147</v>
       </c>
       <c r="E74" s="15" t="n">
-        <v>0.0053573338632093</v>
+        <v>0.0237667367858531</v>
       </c>
       <c r="F74" s="12" t="n">
-        <v>93339.5643339207</v>
+        <v>78623.5591669273</v>
       </c>
       <c r="G74" s="13" t="n">
-        <v>2264218.9772616</v>
+        <v>1030977.74992202</v>
       </c>
       <c r="H74" s="14" t="n">
-        <v>24.1928908161901</v>
+        <v>12.9570102436079</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="n">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B75" s="8" t="n">
-        <v>93088.8671953942</v>
+        <v>77678.0101415819</v>
       </c>
       <c r="C75" s="9" t="n">
-        <v>550.601182544822</v>
+        <v>2067.46749373448</v>
       </c>
       <c r="D75" s="10" t="n">
-        <v>0.994085209121848</v>
+        <v>0.973384134197488</v>
       </c>
       <c r="E75" s="15" t="n">
-        <v>0.0059147908781519</v>
+        <v>0.0266158658025116</v>
       </c>
       <c r="F75" s="12" t="n">
-        <v>92813.5666041218</v>
+        <v>76644.2763947146</v>
       </c>
       <c r="G75" s="13" t="n">
-        <v>2170879.41292768</v>
+        <v>952354.190755095</v>
       </c>
       <c r="H75" s="14" t="n">
-        <v>23.3205052154194</v>
+        <v>12.2602804708728</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B76" s="8" t="n">
-        <v>92538.2660128494</v>
+        <v>75610.5426478474</v>
       </c>
       <c r="C76" s="9" t="n">
-        <v>605.103015526576</v>
+        <v>2255.06228983983</v>
       </c>
       <c r="D76" s="10" t="n">
-        <v>0.993461050853897</v>
+        <v>0.970175292877573</v>
       </c>
       <c r="E76" s="15" t="n">
-        <v>0.006538949146103</v>
+        <v>0.0298247071224271</v>
       </c>
       <c r="F76" s="12" t="n">
-        <v>92235.7145050861</v>
+        <v>74483.0115029275</v>
       </c>
       <c r="G76" s="13" t="n">
-        <v>2078065.84632355</v>
+        <v>875709.914360381</v>
       </c>
       <c r="H76" s="14" t="n">
-        <v>22.4562868514848</v>
+        <v>11.5818493518683</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="14"/>
+      <c r="A77" s="7" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="8" t="n">
+        <v>73355.4803580076</v>
+      </c>
+      <c r="C77" s="9" t="n">
+        <v>2452.90458748791</v>
+      </c>
+      <c r="D77" s="10" t="n">
+        <v>0.966561399700246</v>
+      </c>
+      <c r="E77" s="15" t="n">
+        <v>0.0334386002997544</v>
+      </c>
+      <c r="F77" s="12" t="n">
+        <v>72129.0280642636</v>
+      </c>
+      <c r="G77" s="13" t="n">
+        <v>801226.902857453</v>
+      </c>
+      <c r="H77" s="14" t="n">
+        <v>10.922522747409</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="n">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B78" s="8" t="n">
-        <v>91933.1629973228</v>
+        <v>70902.5757705196</v>
       </c>
       <c r="C78" s="9" t="n">
-        <v>665.437197385953</v>
+        <v>2659.43084210978</v>
       </c>
       <c r="D78" s="10" t="n">
-        <v>0.992761728459127</v>
+        <v>0.962491759809726</v>
       </c>
       <c r="E78" s="15" t="n">
-        <v>0.00723827154087295</v>
+        <v>0.0375082401902743</v>
       </c>
       <c r="F78" s="12" t="n">
-        <v>91600.4443986299</v>
+        <v>69572.8603494648</v>
       </c>
       <c r="G78" s="13" t="n">
-        <v>1985830.13181847</v>
+        <v>729097.87479319</v>
       </c>
       <c r="H78" s="14" t="n">
-        <v>21.6008028775894</v>
+        <v>10.2830943286596</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="n">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B79" s="8" t="n">
-        <v>91267.7257999369</v>
+        <v>68243.1449284099</v>
       </c>
       <c r="C79" s="9" t="n">
-        <v>732.179521858881</v>
+        <v>2872.36642100941</v>
       </c>
       <c r="D79" s="10" t="n">
-        <v>0.991977673208776</v>
+        <v>0.957909817549841</v>
       </c>
       <c r="E79" s="15" t="n">
-        <v>0.00802232679122364</v>
+        <v>0.0420901824501589</v>
       </c>
       <c r="F79" s="12" t="n">
-        <v>90901.6360390075</v>
+        <v>66806.9617179052</v>
       </c>
       <c r="G79" s="13" t="n">
-        <v>1894229.68741984</v>
+        <v>659525.014443725</v>
       </c>
       <c r="H79" s="14" t="n">
-        <v>20.7546498043797</v>
+        <v>9.66434086728559</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B80" s="8" t="n">
-        <v>90535.546278078</v>
+        <v>65370.7785074005</v>
       </c>
       <c r="C80" s="9" t="n">
-        <v>805.941394785768</v>
+        <v>3088.59654042334</v>
       </c>
       <c r="D80" s="10" t="n">
-        <v>0.991098066694044</v>
+        <v>0.952752642527063</v>
       </c>
       <c r="E80" s="15" t="n">
-        <v>0.0089019333059563</v>
+        <v>0.0472473574729371</v>
       </c>
       <c r="F80" s="12" t="n">
-        <v>90132.5755806851</v>
+        <v>63826.4802371888</v>
       </c>
       <c r="G80" s="13" t="n">
-        <v>1803328.05138083</v>
+        <v>592718.05272582</v>
       </c>
       <c r="H80" s="14" t="n">
-        <v>19.918453309399</v>
+        <v>9.06701841800338</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="n">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B81" s="8" t="n">
-        <v>89729.6048832922</v>
+        <v>62282.1819669771</v>
       </c>
       <c r="C81" s="9" t="n">
-        <v>887.364842966665</v>
+        <v>3304.04351496265</v>
       </c>
       <c r="D81" s="10" t="n">
-        <v>0.990110679255516</v>
+        <v>0.946950421282374</v>
       </c>
       <c r="E81" s="15" t="n">
-        <v>0.00988932074448363</v>
+        <v>0.0530495787176258</v>
       </c>
       <c r="F81" s="12" t="n">
-        <v>89285.9224618089</v>
+        <v>60630.1602094958</v>
       </c>
       <c r="G81" s="13" t="n">
-        <v>1713195.47580015</v>
+        <v>528891.572488631</v>
       </c>
       <c r="H81" s="14" t="n">
-        <v>19.0928677110351</v>
+        <v>8.49186004384138</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="14"/>
+      <c r="A82" s="7" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" s="8" t="n">
+        <v>58978.1384520145</v>
+      </c>
+      <c r="C82" s="9" t="n">
+        <v>3513.56515659704</v>
+      </c>
+      <c r="D82" s="10" t="n">
+        <v>0.940425973948708</v>
+      </c>
+      <c r="E82" s="15" t="n">
+        <v>0.0595740260512924</v>
+      </c>
+      <c r="F82" s="12" t="n">
+        <v>57221.355873716</v>
+      </c>
+      <c r="G82" s="13" t="n">
+        <v>468261.412279135</v>
+      </c>
+      <c r="H82" s="14" t="n">
+        <v>7.93957599492768</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B83" s="8" t="n">
-        <v>88842.2400403256</v>
+        <v>55464.5732954174</v>
       </c>
       <c r="C83" s="9" t="n">
-        <v>977.114602030997</v>
+        <v>3710.89488437217</v>
       </c>
       <c r="D83" s="10" t="n">
-        <v>0.989001688818433</v>
+        <v>0.933094321944801</v>
       </c>
       <c r="E83" s="15" t="n">
-        <v>0.0109983111815674</v>
+        <v>0.0669056780551987</v>
       </c>
       <c r="F83" s="12" t="n">
-        <v>88353.6827393101</v>
+        <v>53609.1258532313</v>
       </c>
       <c r="G83" s="13" t="n">
-        <v>1623909.55333834</v>
+        <v>411040.056405419</v>
       </c>
       <c r="H83" s="14" t="n">
-        <v>18.278575062957</v>
+        <v>7.41085763368489</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="n">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B84" s="8" t="n">
-        <v>87865.1254382946</v>
+        <v>51753.6784110453</v>
       </c>
       <c r="C84" s="9" t="n">
-        <v>1075.86644394629</v>
+        <v>3888.65023979345</v>
       </c>
       <c r="D84" s="10" t="n">
-        <v>0.987755478199347</v>
+        <v>0.924862341012585</v>
       </c>
       <c r="E84" s="15" t="n">
-        <v>0.0122445218006527</v>
+        <v>0.0751376589874146</v>
       </c>
       <c r="F84" s="12" t="n">
-        <v>87327.1922163214</v>
+        <v>49809.3532911485</v>
       </c>
       <c r="G84" s="13" t="n">
-        <v>1535555.87059903</v>
+        <v>357430.930552188</v>
       </c>
       <c r="H84" s="14" t="n">
-        <v>17.4762838263676</v>
+        <v>6.90638697627153</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="n">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B85" s="8" t="n">
-        <v>86789.2589943483</v>
+        <v>47865.0281712518</v>
       </c>
       <c r="C85" s="9" t="n">
-        <v>1184.29074029793</v>
+        <v>4038.44211850332</v>
       </c>
       <c r="D85" s="10" t="n">
-        <v>0.986354408897822</v>
+        <v>0.915628543995534</v>
       </c>
       <c r="E85" s="15" t="n">
-        <v>0.0136455911021784</v>
+        <v>0.0843714560044665</v>
       </c>
       <c r="F85" s="12" t="n">
-        <v>86197.1136241993</v>
+        <v>45845.8071120002</v>
       </c>
       <c r="G85" s="13" t="n">
-        <v>1448228.67838271</v>
+        <v>307621.577261039</v>
       </c>
       <c r="H85" s="14" t="n">
-        <v>16.6867270807902</v>
+        <v>6.42685461628538</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="n">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B86" s="8" t="n">
-        <v>85604.9682540504</v>
+        <v>43826.5860527485</v>
       </c>
       <c r="C86" s="9" t="n">
-        <v>1303.03008458833</v>
+        <v>4151.12056252673</v>
       </c>
       <c r="D86" s="10" t="n">
-        <v>0.984778569384883</v>
+        <v>0.905283049938442</v>
       </c>
       <c r="E86" s="15" t="n">
-        <v>0.0152214306151171</v>
+        <v>0.0947169500615576</v>
       </c>
       <c r="F86" s="12" t="n">
-        <v>84953.4532117562</v>
+        <v>41751.0257714851</v>
       </c>
       <c r="G86" s="13" t="n">
-        <v>1362031.56475851</v>
+        <v>261775.770149039</v>
       </c>
       <c r="H86" s="14" t="n">
-        <v>15.910660240144</v>
+        <v>5.97299022638845</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="7"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="14"/>
+      <c r="A87" s="7" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" s="8" t="n">
+        <v>39675.4654902218</v>
+      </c>
+      <c r="C87" s="9" t="n">
+        <v>4217.19209152977</v>
+      </c>
+      <c r="D87" s="10" t="n">
+        <v>0.893707810622433</v>
+      </c>
+      <c r="E87" s="15" t="n">
+        <v>0.106292189377567</v>
+      </c>
+      <c r="F87" s="12" t="n">
+        <v>37566.8694444569</v>
+      </c>
+      <c r="G87" s="13" t="n">
+        <v>220024.744377554</v>
+      </c>
+      <c r="H87" s="14" t="n">
+        <v>5.54561217263552</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="n">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B88" s="8" t="n">
-        <v>84301.938169462</v>
+        <v>35458.273398692</v>
       </c>
       <c r="C88" s="9" t="n">
-        <v>1432.66962800529</v>
+        <v>4227.43524816757</v>
       </c>
       <c r="D88" s="10" t="n">
-        <v>0.983005495969436</v>
+        <v>0.880777182785118</v>
       </c>
       <c r="E88" s="15" t="n">
-        <v>0.0169945040305641</v>
+        <v>0.119222817214882</v>
       </c>
       <c r="F88" s="12" t="n">
-        <v>83585.6033554594</v>
+        <v>33344.5557746082</v>
       </c>
       <c r="G88" s="13" t="n">
-        <v>1277078.11154675</v>
+        <v>182457.874933097</v>
       </c>
       <c r="H88" s="14" t="n">
-        <v>15.1488582502053</v>
+        <v>5.14570669816731</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B89" s="8" t="n">
-        <v>82869.2685414567</v>
+        <v>31230.8381505244</v>
       </c>
       <c r="C89" s="9" t="n">
-        <v>1573.6986390541</v>
+        <v>4173.72186944357</v>
       </c>
       <c r="D89" s="10" t="n">
-        <v>0.981009864491964</v>
+        <v>0.866358954270541</v>
       </c>
       <c r="E89" s="15" t="n">
-        <v>0.0189901355080361</v>
+        <v>0.133641045729459</v>
       </c>
       <c r="F89" s="12" t="n">
-        <v>82082.4192219297</v>
+        <v>29143.9772158026</v>
       </c>
       <c r="G89" s="13" t="n">
-        <v>1193492.50819129</v>
+        <v>149113.319158489</v>
       </c>
       <c r="H89" s="14" t="n">
-        <v>14.4021122570211</v>
+        <v>4.77455387011396</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B90" s="8" t="n">
-        <v>81295.5699024026</v>
+        <v>27057.1162810809</v>
       </c>
       <c r="C90" s="9" t="n">
-        <v>1726.46171012997</v>
+        <v>4050.0185974014</v>
       </c>
       <c r="D90" s="10" t="n">
-        <v>0.978763151396778</v>
+        <v>0.850315955502128</v>
       </c>
       <c r="E90" s="15" t="n">
-        <v>0.0212368486032219</v>
+        <v>0.149684044497872</v>
       </c>
       <c r="F90" s="12" t="n">
-        <v>80432.3390473377</v>
+        <v>25032.1069823802</v>
       </c>
       <c r="G90" s="13" t="n">
-        <v>1111410.08896936</v>
+        <v>119969.341942686</v>
       </c>
       <c r="H90" s="14" t="n">
-        <v>13.6712257544124</v>
+        <v>4.43392934769521</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="n">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B91" s="8" t="n">
-        <v>79569.1081922727</v>
+        <v>23007.0976836795</v>
       </c>
       <c r="C91" s="9" t="n">
-        <v>1891.09805069081</v>
+        <v>3853.49527101593</v>
       </c>
       <c r="D91" s="10" t="n">
-        <v>0.976233263214147</v>
+        <v>0.832508414403374</v>
       </c>
       <c r="E91" s="15" t="n">
-        <v>0.0237667367858531</v>
+        <v>0.167491585596626</v>
       </c>
       <c r="F91" s="12" t="n">
-        <v>78623.5591669273</v>
+        <v>21080.3500481715</v>
       </c>
       <c r="G91" s="13" t="n">
-        <v>1030977.74992202</v>
+        <v>94937.2349603062</v>
       </c>
       <c r="H91" s="14" t="n">
-        <v>12.9570102436079</v>
+        <v>4.12643247164773</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="14"/>
+      <c r="A92" s="7" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" s="8" t="n">
+        <v>19153.6024126635</v>
+      </c>
+      <c r="C92" s="9" t="n">
+        <v>3585.60444655978</v>
+      </c>
+      <c r="D92" s="10" t="n">
+        <v>0.812797385614043</v>
+      </c>
+      <c r="E92" s="15" t="n">
+        <v>0.187202614385957</v>
+      </c>
+      <c r="F92" s="12" t="n">
+        <v>17360.8001893836</v>
+      </c>
+      <c r="G92" s="13" t="n">
+        <v>73856.8849121347</v>
+      </c>
+      <c r="H92" s="14" t="n">
+        <v>3.85603101290772</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="7" t="n">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B93" s="8" t="n">
-        <v>77678.0101415819</v>
+        <v>15567.9979661037</v>
       </c>
       <c r="C93" s="9" t="n">
-        <v>2067.46749373448</v>
+        <v>3242.91235685948</v>
       </c>
       <c r="D93" s="10" t="n">
-        <v>0.973384134197488</v>
+        <v>0.791693680592695</v>
       </c>
       <c r="E93" s="15" t="n">
-        <v>0.0266158658025116</v>
+        <v>0.208306319407305</v>
       </c>
       <c r="F93" s="12" t="n">
-        <v>76644.2763947146</v>
+        <v>13946.541787674</v>
       </c>
       <c r="G93" s="13" t="n">
-        <v>952354.190755095</v>
+        <v>56496.0847227511</v>
       </c>
       <c r="H93" s="14" t="n">
-        <v>12.2602804708728</v>
+        <v>3.62898844448466</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="n">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B94" s="8" t="n">
-        <v>75610.5426478474</v>
+        <v>12325.0856092443</v>
       </c>
       <c r="C94" s="9" t="n">
-        <v>2255.06228983983</v>
+        <v>2807.18854764458</v>
       </c>
       <c r="D94" s="10" t="n">
-        <v>0.970175292877573</v>
+        <v>0.772237805347243</v>
       </c>
       <c r="E94" s="15" t="n">
-        <v>0.0298247071224271</v>
+        <v>0.227762194652757</v>
       </c>
       <c r="F94" s="12" t="n">
-        <v>74483.0115029275</v>
+        <v>10921.491335422</v>
       </c>
       <c r="G94" s="13" t="n">
-        <v>875709.914360381</v>
+        <v>42549.5429350771</v>
       </c>
       <c r="H94" s="14" t="n">
-        <v>11.5818493518683</v>
+        <v>3.45227159340487</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="n">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B95" s="8" t="n">
-        <v>73355.4803580076</v>
+        <v>9517.89706159967</v>
       </c>
       <c r="C95" s="9" t="n">
-        <v>2452.90458748791</v>
+        <v>2309.79857231527</v>
       </c>
       <c r="D95" s="10" t="n">
-        <v>0.966561399700246</v>
+        <v>0.757320492398027</v>
       </c>
       <c r="E95" s="15" t="n">
-        <v>0.0334386002997544</v>
+        <v>0.242679507601973</v>
       </c>
       <c r="F95" s="12" t="n">
-        <v>72129.0280642636</v>
+        <v>8362.99777544203</v>
       </c>
       <c r="G95" s="13" t="n">
-        <v>801226.902857453</v>
+        <v>31628.0515996551</v>
       </c>
       <c r="H95" s="14" t="n">
-        <v>10.922522747409</v>
+        <v>3.32300836991185</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="n">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B96" s="8" t="n">
-        <v>70902.5757705196</v>
+        <v>7208.0984892844</v>
       </c>
       <c r="C96" s="9" t="n">
-        <v>2659.43084210978</v>
+        <v>1823.7846219084</v>
       </c>
       <c r="D96" s="10" t="n">
-        <v>0.962491759809726</v>
+        <v>0.746981173381628</v>
       </c>
       <c r="E96" s="15" t="n">
-        <v>0.0375082401902743</v>
+        <v>0.253018826618372</v>
       </c>
       <c r="F96" s="12" t="n">
-        <v>69572.8603494648</v>
+        <v>6296.2061783302</v>
       </c>
       <c r="G96" s="13" t="n">
-        <v>729097.87479319</v>
+        <v>23265.0538242131</v>
       </c>
       <c r="H96" s="14" t="n">
-        <v>10.2830943286596</v>
+        <v>3.22762707235467</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="7"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="14"/>
+      <c r="A97" s="7" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" s="8" t="n">
+        <v>5384.313867376</v>
+      </c>
+      <c r="C97" s="9" t="n">
+        <v>1396.93967787363</v>
+      </c>
+      <c r="D97" s="10" t="n">
+        <v>0.740553817574083</v>
+      </c>
+      <c r="E97" s="15" t="n">
+        <v>0.259446182425917</v>
+      </c>
+      <c r="F97" s="12" t="n">
+        <v>4685.84402843918</v>
+      </c>
+      <c r="G97" s="13" t="n">
+        <v>16968.8476458829</v>
+      </c>
+      <c r="H97" s="14" t="n">
+        <v>3.1515338934267</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="n">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B98" s="8" t="n">
-        <v>68243.1449284099</v>
+        <v>3987.37418950237</v>
       </c>
       <c r="C98" s="9" t="n">
-        <v>2872.36642100941</v>
+        <v>1048.28133669091</v>
       </c>
       <c r="D98" s="10" t="n">
-        <v>0.957909817549841</v>
+        <v>0.737099833908055</v>
       </c>
       <c r="E98" s="15" t="n">
-        <v>0.0420901824501589</v>
+        <v>0.262900166091945</v>
       </c>
       <c r="F98" s="12" t="n">
-        <v>66806.9617179052</v>
+        <v>3463.23352115692</v>
       </c>
       <c r="G98" s="13" t="n">
-        <v>659525.014443725</v>
+        <v>12283.0036174437</v>
       </c>
       <c r="H98" s="14" t="n">
-        <v>9.66434086728559</v>
+        <v>3.08047427547216</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="7" t="n">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="B99" s="8" t="n">
-        <v>65370.7785074005</v>
+        <v>2939.09285281146</v>
       </c>
       <c r="C99" s="9" t="n">
-        <v>3088.59654042334</v>
+        <v>777.311969723111</v>
       </c>
       <c r="D99" s="10" t="n">
-        <v>0.952752642527063</v>
+        <v>0.735526569370017</v>
       </c>
       <c r="E99" s="15" t="n">
-        <v>0.0472473574729371</v>
+        <v>0.264473430629983</v>
       </c>
       <c r="F99" s="12" t="n">
-        <v>63826.4802371888</v>
+        <v>2550.43686794991</v>
       </c>
       <c r="G99" s="13" t="n">
-        <v>592718.05272582</v>
+        <v>8819.77009628678</v>
       </c>
       <c r="H99" s="14" t="n">
-        <v>9.06701841800338</v>
+        <v>3.00084772342256</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="7" t="n">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B100" s="8" t="n">
-        <v>62282.1819669771</v>
+        <v>2161.78088308835</v>
       </c>
       <c r="C100" s="9" t="n">
-        <v>3304.04351496265</v>
+        <v>573.574391219867</v>
       </c>
       <c r="D100" s="10" t="n">
-        <v>0.946950421282374</v>
+        <v>0.734675056243235</v>
       </c>
       <c r="E100" s="15" t="n">
-        <v>0.0530495787176258</v>
+        <v>0.265324943756765</v>
       </c>
       <c r="F100" s="12" t="n">
-        <v>60630.1602094958</v>
+        <v>1874.99368747842</v>
       </c>
       <c r="G100" s="13" t="n">
-        <v>528891.572488631</v>
+        <v>6269.33322833687</v>
       </c>
       <c r="H100" s="14" t="n">
-        <v>8.49186004384138</v>
+        <v>2.90007802242215</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="n">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B101" s="8" t="n">
-        <v>58978.1384520145</v>
+        <v>1588.20649186849</v>
       </c>
       <c r="C101" s="9" t="n">
-        <v>3513.56515659704</v>
+        <v>423.472707803512</v>
       </c>
       <c r="D101" s="10" t="n">
-        <v>0.940425973948708</v>
+        <v>0.733364200453993</v>
       </c>
       <c r="E101" s="15" t="n">
-        <v>0.0595740260512924</v>
+        <v>0.266635799546007</v>
       </c>
       <c r="F101" s="12" t="n">
-        <v>57221.355873716</v>
+        <v>1376.47013796673</v>
       </c>
       <c r="G101" s="13" t="n">
-        <v>468261.412279135</v>
+        <v>4394.33954085846</v>
       </c>
       <c r="H101" s="14" t="n">
-        <v>7.93957599492768</v>
+        <v>2.76685655382798</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="7"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="14"/>
+      <c r="A102" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" s="8" t="n">
+        <v>1164.73378406497</v>
+      </c>
+      <c r="C102" s="9" t="n">
+        <v>314.021594691221</v>
+      </c>
+      <c r="D102" s="10" t="n">
+        <v>0.730391958241933</v>
+      </c>
+      <c r="E102" s="15" t="n">
+        <v>0.269608041758067</v>
+      </c>
+      <c r="F102" s="12" t="n">
+        <v>1007.72298671936</v>
+      </c>
+      <c r="G102" s="13" t="n">
+        <v>3017.86940289173</v>
+      </c>
+      <c r="H102" s="14" t="n">
+        <v>2.59103792143749</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B103" s="8" t="n">
-        <v>55464.5732954174</v>
+        <v>850.712189373752</v>
       </c>
       <c r="C103" s="9" t="n">
-        <v>3710.89488437217</v>
+        <v>234.376408035518</v>
       </c>
       <c r="D103" s="10" t="n">
-        <v>0.933094321944801</v>
+        <v>0.724493887635426</v>
       </c>
       <c r="E103" s="15" t="n">
-        <v>0.0669056780551987</v>
+        <v>0.275506112364574</v>
       </c>
       <c r="F103" s="12" t="n">
-        <v>53609.1258532313</v>
+        <v>733.523985355993</v>
       </c>
       <c r="G103" s="13" t="n">
-        <v>411040.056405419</v>
+        <v>2010.14641617236</v>
       </c>
       <c r="H103" s="14" t="n">
-        <v>7.41085763368489</v>
+        <v>2.36289833539605</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="n">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B104" s="8" t="n">
-        <v>51753.6784110453</v>
+        <v>616.335781338234</v>
       </c>
       <c r="C104" s="9" t="n">
-        <v>3888.65023979345</v>
+        <v>176.113267084526</v>
       </c>
       <c r="D104" s="10" t="n">
-        <v>0.924862341012585</v>
+        <v>0.714257597210833</v>
       </c>
       <c r="E104" s="15" t="n">
-        <v>0.0751376589874146</v>
+        <v>0.285742402789167</v>
       </c>
       <c r="F104" s="12" t="n">
-        <v>49809.3532911485</v>
+        <v>528.279147795972</v>
       </c>
       <c r="G104" s="13" t="n">
-        <v>357430.930552188</v>
+        <v>1276.62243081637</v>
       </c>
       <c r="H104" s="14" t="n">
-        <v>6.90638697627153</v>
+        <v>2.07130994089694</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="n">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B105" s="8" t="n">
-        <v>47865.0281712518</v>
+        <v>440.222514253709</v>
       </c>
       <c r="C105" s="9" t="n">
-        <v>4038.44211850332</v>
+        <v>132.951818354691</v>
       </c>
       <c r="D105" s="10" t="n">
-        <v>0.915628543995534</v>
+        <v>0.697989507465153</v>
       </c>
       <c r="E105" s="15" t="n">
-        <v>0.0843714560044665</v>
+        <v>0.302010492534847</v>
       </c>
       <c r="F105" s="12" t="n">
-        <v>45845.8071120002</v>
+        <v>373.746605076363</v>
       </c>
       <c r="G105" s="13" t="n">
-        <v>307621.577261039</v>
+        <v>748.343283020399</v>
       </c>
       <c r="H105" s="14" t="n">
-        <v>6.42685461628538</v>
+        <v>1.69992051471751</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="n">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B106" s="8" t="n">
-        <v>43826.5860527485</v>
+        <v>307.270695899017</v>
       </c>
       <c r="C106" s="9" t="n">
-        <v>4151.12056252673</v>
+        <v>86.3093659044899</v>
       </c>
       <c r="D106" s="10" t="n">
-        <v>0.905283049938442</v>
+        <v>0.719109674119868</v>
       </c>
       <c r="E106" s="15" t="n">
-        <v>0.0947169500615576</v>
+        <v>0.280890325880132</v>
       </c>
       <c r="F106" s="12" t="n">
-        <v>41751.0257714851</v>
+        <v>264.116012946772</v>
       </c>
       <c r="G106" s="13" t="n">
-        <v>261775.770149039</v>
+        <v>374.596677944036</v>
       </c>
       <c r="H106" s="14" t="n">
-        <v>5.97299022638845</v>
+        <v>1.21910967411987</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="7"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="14"/>
+      <c r="A107" s="16" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" s="17" t="n">
+        <v>220.961329994527</v>
+      </c>
+      <c r="C107" s="18" t="n">
+        <v>220.961329994527</v>
+      </c>
+      <c r="D107" s="19" t="n">
+        <v>0.896101161906003</v>
+      </c>
+      <c r="E107" s="20" t="n">
+        <v>0.103898838093997</v>
+      </c>
+      <c r="F107" s="21" t="n">
+        <v>110.480664997264</v>
+      </c>
+      <c r="G107" s="22" t="n">
+        <v>110.480664997264</v>
+      </c>
+      <c r="H107" s="23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I107" s="24"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="7" t="n">
-        <v>85</v>
-      </c>
-      <c r="B108" s="8" t="n">
-        <v>39675.4654902218</v>
-      </c>
-      <c r="C108" s="9" t="n">
-        <v>4217.19209152977</v>
-      </c>
-      <c r="D108" s="10" t="n">
-        <v>0.893707810622433</v>
-      </c>
-      <c r="E108" s="15" t="n">
-        <v>0.106292189377567</v>
-      </c>
-      <c r="F108" s="12" t="n">
-        <v>37566.8694444569</v>
-      </c>
-      <c r="G108" s="13" t="n">
-        <v>220024.744377554</v>
-      </c>
-      <c r="H108" s="14" t="n">
-        <v>5.54561217263552</v>
-      </c>
+      <c r="A108" s="25"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="25"/>
+      <c r="I108" s="25"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="7" t="n">
-        <v>86</v>
-      </c>
-      <c r="B109" s="8" t="n">
-        <v>35458.273398692</v>
-      </c>
-      <c r="C109" s="9" t="n">
-        <v>4227.43524816757</v>
-      </c>
-      <c r="D109" s="10" t="n">
-        <v>0.880777182785118</v>
-      </c>
-      <c r="E109" s="15" t="n">
-        <v>0.119222817214882</v>
-      </c>
-      <c r="F109" s="12" t="n">
-        <v>33344.5557746082</v>
-      </c>
-      <c r="G109" s="13" t="n">
-        <v>182457.874933097</v>
-      </c>
-      <c r="H109" s="14" t="n">
-        <v>5.14570669816731</v>
-      </c>
+      <c r="A109" s="26"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="26"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="26"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="26"/>
+      <c r="I109" s="26"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="7" t="n">
-        <v>87</v>
-      </c>
-      <c r="B110" s="8" t="n">
-        <v>31230.8381505244</v>
-      </c>
-      <c r="C110" s="9" t="n">
-        <v>4173.72186944357</v>
-      </c>
-      <c r="D110" s="10" t="n">
-        <v>0.866358954270541</v>
-      </c>
-      <c r="E110" s="15" t="n">
-        <v>0.133641045729459</v>
-      </c>
-      <c r="F110" s="12" t="n">
-        <v>29143.9772158026</v>
-      </c>
-      <c r="G110" s="13" t="n">
-        <v>149113.319158489</v>
-      </c>
-      <c r="H110" s="14" t="n">
-        <v>4.77455387011396</v>
-      </c>
+      <c r="A110" s="26"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="26"/>
+      <c r="G110" s="26"/>
+      <c r="H110" s="26"/>
+      <c r="I110" s="26"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="7" t="n">
-        <v>88</v>
-      </c>
-      <c r="B111" s="8" t="n">
-        <v>27057.1162810809</v>
-      </c>
-      <c r="C111" s="9" t="n">
-        <v>4050.0185974014</v>
-      </c>
-      <c r="D111" s="10" t="n">
-        <v>0.850315955502128</v>
-      </c>
-      <c r="E111" s="15" t="n">
-        <v>0.149684044497872</v>
-      </c>
-      <c r="F111" s="12" t="n">
-        <v>25032.1069823802</v>
-      </c>
-      <c r="G111" s="13" t="n">
-        <v>119969.341942686</v>
-      </c>
-      <c r="H111" s="14" t="n">
-        <v>4.43392934769521</v>
-      </c>
+      <c r="A111" s="26"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="26"/>
+      <c r="G111" s="26"/>
+      <c r="H111" s="26"/>
+      <c r="I111" s="26"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="7"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="15"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="14"/>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="7" t="n">
-        <v>89</v>
-      </c>
-      <c r="B113" s="8" t="n">
-        <v>23007.0976836795</v>
-      </c>
-      <c r="C113" s="9" t="n">
-        <v>3853.49527101593</v>
-      </c>
-      <c r="D113" s="10" t="n">
-        <v>0.832508414403374</v>
-      </c>
-      <c r="E113" s="15" t="n">
-        <v>0.167491585596626</v>
-      </c>
-      <c r="F113" s="12" t="n">
-        <v>21080.3500481715</v>
-      </c>
-      <c r="G113" s="13" t="n">
-        <v>94937.2349603062</v>
-      </c>
-      <c r="H113" s="14" t="n">
-        <v>4.12643247164773</v>
-      </c>
+      <c r="A112" s="27"/>
+      <c r="B112" s="27"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+    </row>
+    <row r="113" s="6" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="26"/>
+      <c r="B113" s="26"/>
+      <c r="C113" s="26"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="26"/>
+      <c r="G113" s="26"/>
+      <c r="H113" s="26"/>
+      <c r="I113" s="26"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="7" t="n">
-        <v>90</v>
-      </c>
-      <c r="B114" s="8" t="n">
-        <v>19153.6024126635</v>
-      </c>
-      <c r="C114" s="9" t="n">
-        <v>3585.60444655978</v>
-      </c>
-      <c r="D114" s="10" t="n">
-        <v>0.812797385614043</v>
-      </c>
-      <c r="E114" s="15" t="n">
-        <v>0.187202614385957</v>
-      </c>
-      <c r="F114" s="12" t="n">
-        <v>17360.8001893836</v>
-      </c>
-      <c r="G114" s="13" t="n">
-        <v>73856.8849121347</v>
-      </c>
-      <c r="H114" s="14" t="n">
-        <v>3.85603101290772</v>
-      </c>
+      <c r="A114" s="26"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="26"/>
+      <c r="G114" s="26"/>
+      <c r="H114" s="26"/>
+      <c r="I114" s="26"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="7" t="n">
-        <v>91</v>
-      </c>
-      <c r="B115" s="8" t="n">
-        <v>15567.9979661037</v>
-      </c>
-      <c r="C115" s="9" t="n">
-        <v>3242.91235685948</v>
-      </c>
-      <c r="D115" s="10" t="n">
-        <v>0.791693680592695</v>
-      </c>
-      <c r="E115" s="15" t="n">
-        <v>0.208306319407305</v>
-      </c>
-      <c r="F115" s="12" t="n">
-        <v>13946.541787674</v>
-      </c>
-      <c r="G115" s="13" t="n">
-        <v>56496.0847227511</v>
-      </c>
-      <c r="H115" s="14" t="n">
-        <v>3.62898844448466</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="7" t="n">
-        <v>92</v>
-      </c>
-      <c r="B116" s="8" t="n">
-        <v>12325.0856092443</v>
-      </c>
-      <c r="C116" s="9" t="n">
-        <v>2807.18854764458</v>
-      </c>
-      <c r="D116" s="10" t="n">
-        <v>0.772237805347243</v>
-      </c>
-      <c r="E116" s="15" t="n">
-        <v>0.227762194652757</v>
-      </c>
-      <c r="F116" s="12" t="n">
-        <v>10921.491335422</v>
-      </c>
-      <c r="G116" s="13" t="n">
-        <v>42549.5429350771</v>
-      </c>
-      <c r="H116" s="14" t="n">
-        <v>3.45227159340487</v>
-      </c>
+      <c r="A115" s="26"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="26"/>
+      <c r="D115" s="26"/>
+      <c r="E115" s="26"/>
+      <c r="F115" s="26"/>
+      <c r="G115" s="26"/>
+      <c r="H115" s="26"/>
+      <c r="I115" s="26"/>
+    </row>
+    <row r="116" s="6" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="26"/>
+      <c r="B116" s="26"/>
+      <c r="C116" s="26"/>
+      <c r="D116" s="26"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="26"/>
+      <c r="G116" s="26"/>
+      <c r="H116" s="26"/>
+      <c r="I116" s="26"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="7"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="15"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="13"/>
-      <c r="H117" s="14"/>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="7" t="n">
-        <v>93</v>
-      </c>
-      <c r="B118" s="8" t="n">
-        <v>9517.89706159967</v>
-      </c>
-      <c r="C118" s="9" t="n">
-        <v>2309.79857231527</v>
-      </c>
-      <c r="D118" s="10" t="n">
-        <v>0.757320492398027</v>
-      </c>
-      <c r="E118" s="15" t="n">
-        <v>0.242679507601973</v>
-      </c>
-      <c r="F118" s="12" t="n">
-        <v>8362.99777544203</v>
-      </c>
-      <c r="G118" s="13" t="n">
-        <v>31628.0515996551</v>
-      </c>
-      <c r="H118" s="14" t="n">
-        <v>3.32300836991185</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="7" t="n">
-        <v>94</v>
-      </c>
-      <c r="B119" s="8" t="n">
-        <v>7208.0984892844</v>
-      </c>
-      <c r="C119" s="9" t="n">
-        <v>1823.7846219084</v>
-      </c>
-      <c r="D119" s="10" t="n">
-        <v>0.746981173381628</v>
-      </c>
-      <c r="E119" s="15" t="n">
-        <v>0.253018826618372</v>
-      </c>
-      <c r="F119" s="12" t="n">
-        <v>6296.2061783302</v>
-      </c>
-      <c r="G119" s="13" t="n">
-        <v>23265.0538242131</v>
-      </c>
-      <c r="H119" s="14" t="n">
-        <v>3.22762707235467</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="7" t="n">
-        <v>95</v>
-      </c>
-      <c r="B120" s="8" t="n">
-        <v>5384.313867376</v>
-      </c>
-      <c r="C120" s="9" t="n">
-        <v>1396.93967787363</v>
-      </c>
-      <c r="D120" s="10" t="n">
-        <v>0.740553817574083</v>
-      </c>
-      <c r="E120" s="15" t="n">
-        <v>0.259446182425917</v>
-      </c>
-      <c r="F120" s="12" t="n">
-        <v>4685.84402843918</v>
-      </c>
-      <c r="G120" s="13" t="n">
-        <v>16968.8476458829</v>
-      </c>
-      <c r="H120" s="14" t="n">
-        <v>3.1515338934267</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="7" t="n">
-        <v>96</v>
-      </c>
-      <c r="B121" s="8" t="n">
-        <v>3987.37418950237</v>
-      </c>
-      <c r="C121" s="9" t="n">
-        <v>1048.28133669091</v>
-      </c>
-      <c r="D121" s="10" t="n">
-        <v>0.737099833908055</v>
-      </c>
-      <c r="E121" s="15" t="n">
-        <v>0.262900166091945</v>
-      </c>
-      <c r="F121" s="12" t="n">
-        <v>3463.23352115692</v>
-      </c>
-      <c r="G121" s="13" t="n">
-        <v>12283.0036174437</v>
-      </c>
-      <c r="H121" s="14" t="n">
-        <v>3.08047427547216</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="7"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="15"/>
-      <c r="F122" s="12"/>
-      <c r="G122" s="13"/>
-      <c r="H122" s="14"/>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="7" t="n">
-        <v>97</v>
-      </c>
-      <c r="B123" s="8" t="n">
-        <v>2939.09285281146</v>
-      </c>
-      <c r="C123" s="9" t="n">
-        <v>777.311969723111</v>
-      </c>
-      <c r="D123" s="10" t="n">
-        <v>0.735526569370017</v>
-      </c>
-      <c r="E123" s="15" t="n">
-        <v>0.264473430629983</v>
-      </c>
-      <c r="F123" s="12" t="n">
-        <v>2550.43686794991</v>
-      </c>
-      <c r="G123" s="13" t="n">
-        <v>8819.77009628678</v>
-      </c>
-      <c r="H123" s="14" t="n">
-        <v>3.00084772342256</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="7" t="n">
-        <v>98</v>
-      </c>
-      <c r="B124" s="8" t="n">
-        <v>2161.78088308835</v>
-      </c>
-      <c r="C124" s="9" t="n">
-        <v>573.574391219867</v>
-      </c>
-      <c r="D124" s="10" t="n">
-        <v>0.734675056243235</v>
-      </c>
-      <c r="E124" s="15" t="n">
-        <v>0.265324943756765</v>
-      </c>
-      <c r="F124" s="12" t="n">
-        <v>1874.99368747842</v>
-      </c>
-      <c r="G124" s="13" t="n">
-        <v>6269.33322833687</v>
-      </c>
-      <c r="H124" s="14" t="n">
-        <v>2.90007802242215</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="7" t="n">
-        <v>99</v>
-      </c>
-      <c r="B125" s="8" t="n">
-        <v>1588.20649186849</v>
-      </c>
-      <c r="C125" s="9" t="n">
-        <v>423.472707803512</v>
-      </c>
-      <c r="D125" s="10" t="n">
-        <v>0.733364200453993</v>
-      </c>
-      <c r="E125" s="15" t="n">
-        <v>0.266635799546007</v>
-      </c>
-      <c r="F125" s="12" t="n">
-        <v>1376.47013796673</v>
-      </c>
-      <c r="G125" s="13" t="n">
-        <v>4394.33954085846</v>
-      </c>
-      <c r="H125" s="14" t="n">
-        <v>2.76685655382798</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="7" t="n">
-        <v>100</v>
-      </c>
-      <c r="B126" s="8" t="n">
-        <v>1164.73378406497</v>
-      </c>
-      <c r="C126" s="9" t="n">
-        <v>314.021594691221</v>
-      </c>
-      <c r="D126" s="10" t="n">
-        <v>0.730391958241933</v>
-      </c>
-      <c r="E126" s="15" t="n">
-        <v>0.269608041758067</v>
-      </c>
-      <c r="F126" s="12" t="n">
-        <v>1007.72298671936</v>
-      </c>
-      <c r="G126" s="13" t="n">
-        <v>3017.86940289173</v>
-      </c>
-      <c r="H126" s="14" t="n">
-        <v>2.59103792143749</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="7"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="15"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="13"/>
-      <c r="H127" s="14"/>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="7" t="n">
-        <v>101</v>
-      </c>
-      <c r="B128" s="8" t="n">
-        <v>850.712189373752</v>
-      </c>
-      <c r="C128" s="9" t="n">
-        <v>234.376408035518</v>
-      </c>
-      <c r="D128" s="10" t="n">
-        <v>0.724493887635426</v>
-      </c>
-      <c r="E128" s="15" t="n">
-        <v>0.275506112364574</v>
-      </c>
-      <c r="F128" s="12" t="n">
-        <v>733.523985355993</v>
-      </c>
-      <c r="G128" s="13" t="n">
-        <v>2010.14641617236</v>
-      </c>
-      <c r="H128" s="14" t="n">
-        <v>2.36289833539605</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="7" t="n">
-        <v>102</v>
-      </c>
-      <c r="B129" s="8" t="n">
-        <v>616.335781338234</v>
-      </c>
-      <c r="C129" s="9" t="n">
-        <v>176.113267084526</v>
-      </c>
-      <c r="D129" s="10" t="n">
-        <v>0.714257597210833</v>
-      </c>
-      <c r="E129" s="15" t="n">
-        <v>0.285742402789167</v>
-      </c>
-      <c r="F129" s="12" t="n">
-        <v>528.279147795972</v>
-      </c>
-      <c r="G129" s="13" t="n">
-        <v>1276.62243081637</v>
-      </c>
-      <c r="H129" s="14" t="n">
-        <v>2.07130994089694</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="7" t="n">
-        <v>103</v>
-      </c>
-      <c r="B130" s="8" t="n">
-        <v>440.222514253709</v>
-      </c>
-      <c r="C130" s="9" t="n">
-        <v>132.951818354691</v>
-      </c>
-      <c r="D130" s="10" t="n">
-        <v>0.697989507465153</v>
-      </c>
-      <c r="E130" s="15" t="n">
-        <v>0.302010492534847</v>
-      </c>
-      <c r="F130" s="12" t="n">
-        <v>373.746605076363</v>
-      </c>
-      <c r="G130" s="13" t="n">
-        <v>748.343283020399</v>
-      </c>
-      <c r="H130" s="14" t="n">
-        <v>1.69992051471751</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="7" t="n">
-        <v>104</v>
-      </c>
-      <c r="B131" s="8" t="n">
-        <v>307.270695899017</v>
-      </c>
-      <c r="C131" s="9" t="n">
-        <v>86.3093659044899</v>
-      </c>
-      <c r="D131" s="10" t="n">
-        <v>0.719109674119868</v>
-      </c>
-      <c r="E131" s="15" t="n">
-        <v>0.280890325880132</v>
-      </c>
-      <c r="F131" s="12" t="n">
-        <v>264.116012946772</v>
-      </c>
-      <c r="G131" s="13" t="n">
-        <v>374.596677944036</v>
-      </c>
-      <c r="H131" s="14" t="n">
-        <v>1.21910967411987</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="7"/>
-      <c r="B132" s="8"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="15"/>
-      <c r="F132" s="12"/>
-      <c r="G132" s="13"/>
-      <c r="H132" s="14"/>
-    </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="16" t="n">
-        <v>105</v>
-      </c>
-      <c r="B133" s="17" t="n">
-        <v>220.961329994527</v>
-      </c>
-      <c r="C133" s="18" t="n">
-        <v>220.961329994527</v>
-      </c>
-      <c r="D133" s="19" t="n">
-        <v>0.896101161906003</v>
-      </c>
-      <c r="E133" s="20" t="n">
-        <v>0.103898838093997</v>
-      </c>
-      <c r="F133" s="21" t="n">
-        <v>110.480664997264</v>
-      </c>
-      <c r="G133" s="22" t="n">
-        <v>110.480664997264</v>
-      </c>
-      <c r="H133" s="23" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I133" s="24"/>
-    </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="25"/>
-      <c r="B134" s="25"/>
-      <c r="C134" s="25"/>
-      <c r="D134" s="25"/>
-      <c r="E134" s="25"/>
-      <c r="F134" s="25"/>
-      <c r="G134" s="25"/>
-      <c r="H134" s="25"/>
-      <c r="I134" s="25"/>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="26"/>
-      <c r="B135" s="26"/>
-      <c r="C135" s="26"/>
-      <c r="D135" s="26"/>
-      <c r="E135" s="26"/>
-      <c r="F135" s="26"/>
-      <c r="G135" s="26"/>
-      <c r="H135" s="26"/>
-      <c r="I135" s="26"/>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="26"/>
-      <c r="B136" s="26"/>
-      <c r="C136" s="26"/>
-      <c r="D136" s="26"/>
-      <c r="E136" s="26"/>
-      <c r="F136" s="26"/>
-      <c r="G136" s="26"/>
-      <c r="H136" s="26"/>
-      <c r="I136" s="26"/>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="26"/>
-      <c r="B137" s="26"/>
-      <c r="C137" s="26"/>
-      <c r="D137" s="26"/>
-      <c r="E137" s="26"/>
-      <c r="F137" s="26"/>
-      <c r="G137" s="26"/>
-      <c r="H137" s="26"/>
-      <c r="I137" s="26"/>
-    </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="27"/>
-      <c r="B138" s="27"/>
-      <c r="C138" s="27"/>
-      <c r="D138" s="27"/>
-      <c r="E138" s="27"/>
-      <c r="F138" s="27"/>
-      <c r="G138" s="27"/>
-      <c r="H138" s="27"/>
-      <c r="I138" s="27"/>
-    </row>
-    <row r="139" s="6" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="26"/>
-      <c r="B139" s="26"/>
-      <c r="C139" s="26"/>
-      <c r="D139" s="26"/>
-      <c r="E139" s="26"/>
-      <c r="F139" s="26"/>
-      <c r="G139" s="26"/>
-      <c r="H139" s="26"/>
-      <c r="I139" s="26"/>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="26"/>
-      <c r="B140" s="26"/>
-      <c r="C140" s="26"/>
-      <c r="D140" s="26"/>
-      <c r="E140" s="26"/>
-      <c r="F140" s="26"/>
-      <c r="G140" s="26"/>
-      <c r="H140" s="26"/>
-      <c r="I140" s="26"/>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="26"/>
-      <c r="B141" s="26"/>
-      <c r="C141" s="26"/>
-      <c r="D141" s="26"/>
-      <c r="E141" s="26"/>
-      <c r="F141" s="26"/>
-      <c r="G141" s="26"/>
-      <c r="H141" s="26"/>
-      <c r="I141" s="26"/>
-    </row>
-    <row r="142" s="6" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="26"/>
-      <c r="B142" s="26"/>
-      <c r="C142" s="26"/>
-      <c r="D142" s="26"/>
-      <c r="E142" s="26"/>
-      <c r="F142" s="26"/>
-      <c r="G142" s="26"/>
-      <c r="H142" s="26"/>
-      <c r="I142" s="26"/>
-    </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="26"/>
-      <c r="B143" s="26"/>
-      <c r="C143" s="26"/>
-      <c r="D143" s="26"/>
-      <c r="E143" s="26"/>
-      <c r="F143" s="26"/>
-      <c r="G143" s="26"/>
-      <c r="H143" s="26"/>
-      <c r="I143" s="26"/>
-    </row>
+      <c r="A117" s="26"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="26"/>
+      <c r="D117" s="26"/>
+      <c r="E117" s="26"/>
+      <c r="F117" s="26"/>
+      <c r="G117" s="26"/>
+      <c r="H117" s="26"/>
+      <c r="I117" s="26"/>
+    </row>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A134:I134"/>
-    <mergeCell ref="A135:I135"/>
-    <mergeCell ref="A136:I136"/>
-    <mergeCell ref="A137:I137"/>
-    <mergeCell ref="A138:I138"/>
-    <mergeCell ref="A139:I139"/>
-    <mergeCell ref="A140:I140"/>
-    <mergeCell ref="A141:I141"/>
-    <mergeCell ref="A142:I142"/>
-    <mergeCell ref="A143:I143"/>
+    <mergeCell ref="A108:I108"/>
+    <mergeCell ref="A109:I109"/>
+    <mergeCell ref="A110:I110"/>
+    <mergeCell ref="A111:I111"/>
+    <mergeCell ref="A112:I112"/>
+    <mergeCell ref="A113:I113"/>
+    <mergeCell ref="A114:I114"/>
+    <mergeCell ref="A115:I115"/>
+    <mergeCell ref="A116:I116"/>
+    <mergeCell ref="A117:I117"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
